--- a/BOM/DAKSH Tool Changer V2 - BOM(India).xlsx
+++ b/BOM/DAKSH Tool Changer V2 - BOM(India).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
   <si>
     <t>Ordered</t>
   </si>
@@ -107,7 +107,19 @@
     <t>0.3mm -0.45mm Feeler Gauge Strip</t>
   </si>
   <si>
-    <t>https://amzn.in/d/dUbM6hw</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://amzn.in/d/dUbM6hw</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> It is a whole set of feeler guages, you can find cheaper individual one locally</t>
+    </r>
   </si>
   <si>
     <t>Full set of feeler gauges</t>
@@ -140,6 +152,12 @@
     <t>M5 T Nut Hammer Head Drop in</t>
   </si>
   <si>
+    <t>Silicone Nozzle Cleaner</t>
+  </si>
+  <si>
+    <t>https://amzn.in/d/6Rx3F1c</t>
+  </si>
+  <si>
     <t>Total Price</t>
   </si>
   <si>
@@ -290,7 +308,7 @@
     <t>Triangle Lab TD6S Hotend 24V</t>
   </si>
   <si>
-    <t>https://dc3d.in/shop/voron-v2-4-parts/trianglelab-dragon-ace-hotend/</t>
+    <t>https://novo3d.in/bambu-lab/?swcfpc=1</t>
   </si>
   <si>
     <t>(Just a place holder, look at international for proper part)Any hotend with Dragon style top mounting holes will work with mods to the parts cooling fan for nozzle alignment</t>
@@ -311,13 +329,13 @@
     <t>BMG Dual Extruder Gear set</t>
   </si>
   <si>
-    <t>https://dc3d.in/shop/voron-v2-4-parts/mellow-bmg-dual-drive-extruder-gears-set/</t>
+    <t>https://novo3d.in/bmg-gear/?swcfpc=1</t>
   </si>
   <si>
     <t>EBB 36 Toolhead Board</t>
   </si>
   <si>
-    <t>https://robu.in/product/bigtreetech-ebb36-can-v1-2/</t>
+    <t>https://novo3d.in/bigtreetech-ebb36-canbus/?swcfpc=1</t>
   </si>
   <si>
     <t>Optical Endstop Switch</t>
@@ -338,7 +356,19 @@
     <t>MGN12 Rails 35mm - Cut as per provided guide</t>
   </si>
   <si>
-    <t>https://novo3d.in/mgn12h-linear-rail/</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://novo3d.in/mgn12h-linear-rail/</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> can find used rails for a lot cheaper</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">100mm Rail per tool is required to obtain 2x35mm cuts </t>
@@ -383,7 +413,19 @@
     <t>MR63ZZ Bearing</t>
   </si>
   <si>
-    <t>https://amzn.in/d/e7LxKSf</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://amzn.in/d/e7LxKSf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> Price is For moq Actuall price for qty is only Rs.174</t>
+    </r>
   </si>
   <si>
     <t>(Place Holder)</t>
@@ -458,10 +500,10 @@
     <t>Loctite Thread Locker</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Glue Gun (for umbilical positioning)</t>
-  </si>
-  <si>
-    <t>M3 x 8 SHCS</t>
   </si>
   <si>
     <r>
@@ -476,12 +518,57 @@
       <t>https://amzn.in/d/4WZXAzH</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://amzn.in/d/dUbM6hw</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> It is a whole set of feeler guages, you can find cheaper individual one locally</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://novo3d.in/mgn12h-linear-rail/</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> can find used rails for a lot cheaper</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://amzn.in/d/e7LxKSf</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> Price is For moq Actuall price for qty is only Rs.174</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -511,6 +598,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -553,29 +644,21 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -606,65 +689,63 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -887,6 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1108,7 +1190,7 @@
       <c r="E10" s="4">
         <v>369.0</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1215,16 +1297,36 @@
         <v>34</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>53.0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="20" ht="58.5" customHeight="1">
-      <c r="C20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="9">
+      <c r="C20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="10">
         <f>SUMPRODUCT(D2:D19,E2:E19)</f>
-        <v>1070.06</v>
+        <v>1123.06</v>
       </c>
     </row>
   </sheetData>
@@ -1244,8 +1346,12 @@
     <hyperlink r:id="rId13" ref="F13"/>
     <hyperlink r:id="rId14" ref="F14"/>
     <hyperlink r:id="rId15" ref="F15"/>
+    <hyperlink r:id="rId16" ref="F16"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1273,16 +1379,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1293,17 +1399,17 @@
       <c r="B2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13">
         <v>8.0</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="13">
         <v>90.86</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>41</v>
+      <c r="F2" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -1313,17 +1419,17 @@
       <c r="B3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="13">
         <v>6.0</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="13">
         <v>19.0</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>43</v>
+      <c r="F3" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1333,17 +1439,17 @@
       <c r="B4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13">
         <v>6.0</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="13">
         <v>19.0</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>45</v>
+      <c r="F4" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -1353,17 +1459,17 @@
       <c r="B5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="13">
         <v>4.0</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="13">
         <v>22.9</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>47</v>
+      <c r="F5" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -1373,17 +1479,17 @@
       <c r="B6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
         <v>2.0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="13">
         <v>1.42</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>49</v>
+      <c r="F6" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1393,17 +1499,17 @@
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="13">
         <v>5.0</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <v>2.6</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>51</v>
+      <c r="F7" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1413,17 +1519,17 @@
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="13">
         <v>3.0</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="13">
         <v>0.59</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>53</v>
+      <c r="F8" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
@@ -1433,17 +1539,17 @@
       <c r="B9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="13">
         <v>4.0</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="13">
         <v>0.83</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>55</v>
+      <c r="F9" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -1453,17 +1559,17 @@
       <c r="B10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="13">
         <v>4.0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="13">
         <v>1.65</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>57</v>
+      <c r="F10" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -1473,41 +1579,41 @@
       <c r="B11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="13">
         <v>1.0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="13">
         <v>10.9</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>59</v>
+      <c r="F11" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
     <row r="15" ht="35.25" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="10">
         <f>SUMPRODUCT(D2:D14,E2:E14)</f>
         <v>1084.91</v>
       </c>
@@ -1554,19 +1660,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1578,11 +1684,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="b">
@@ -1592,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4">
         <v>9.0</v>
@@ -1600,8 +1706,8 @@
       <c r="E3" s="4">
         <v>7.0</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>62</v>
+      <c r="F3" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1612,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4">
         <v>3.0</v>
@@ -1620,8 +1726,8 @@
       <c r="E4" s="4">
         <v>0.59</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>63</v>
+      <c r="F4" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1632,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="4">
         <v>2.0</v>
@@ -1640,8 +1746,8 @@
       <c r="E5" s="4">
         <v>0.83</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>65</v>
+      <c r="F5" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1652,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4">
         <v>3.0</v>
@@ -1660,8 +1766,8 @@
       <c r="E6" s="4">
         <v>1.65</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>67</v>
+      <c r="F6" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1672,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="4">
         <v>1.0</v>
@@ -1680,8 +1786,8 @@
       <c r="E7" s="4">
         <v>5.9</v>
       </c>
-      <c r="F7" s="18" t="s">
-        <v>69</v>
+      <c r="F7" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -1692,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D8" s="4">
         <v>1.0</v>
@@ -1700,8 +1806,8 @@
       <c r="E8" s="4">
         <v>1.65</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>71</v>
+      <c r="F8" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1712,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4">
         <v>3.0</v>
@@ -1720,8 +1826,8 @@
       <c r="E9" s="4">
         <v>1.42</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>73</v>
+      <c r="F9" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1740,8 +1846,8 @@
       <c r="E10" s="4">
         <v>2.95</v>
       </c>
-      <c r="F10" s="18" t="s">
-        <v>74</v>
+      <c r="F10" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -1752,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" s="4">
         <v>1.0</v>
@@ -1760,8 +1866,8 @@
       <c r="E11" s="4">
         <v>3.3</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>76</v>
+      <c r="F11" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -1772,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="4">
         <v>2.0</v>
@@ -1780,11 +1886,11 @@
       <c r="E12" s="4">
         <v>70.0</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>78</v>
+      <c r="F12" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -1795,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4">
         <v>3.0</v>
@@ -1803,8 +1909,8 @@
       <c r="E13" s="4">
         <v>0.83</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>81</v>
+      <c r="F13" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14">
@@ -1815,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" s="4">
         <v>2.0</v>
@@ -1823,8 +1929,8 @@
       <c r="E14" s="4">
         <v>0.71</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>83</v>
+      <c r="F14" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1835,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="b">
@@ -1845,9 +1951,9 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" s="17"/>
+        <v>86</v>
+      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="b">
@@ -1857,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4">
         <v>1.0</v>
@@ -1865,8 +1971,8 @@
       <c r="E17" s="4">
         <v>799.0</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>86</v>
+      <c r="F17" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1877,19 +1983,19 @@
         <v>0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4">
         <v>1.0</v>
       </c>
       <c r="E18" s="4">
-        <v>9500.0</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>88</v>
+        <v>2299.0</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -1900,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D19" s="4">
         <v>1.0</v>
@@ -1908,8 +2014,8 @@
       <c r="E19" s="4">
         <v>75.0</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>91</v>
+      <c r="F19" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -1920,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D20" s="4">
         <v>1.0</v>
@@ -1928,8 +2034,8 @@
       <c r="E20" s="4">
         <v>208.0</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>93</v>
+      <c r="F20" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -1940,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D21" s="4">
         <v>1.0</v>
       </c>
       <c r="E21" s="4">
-        <v>3000.0</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>95</v>
+        <v>399.0</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1960,16 +2066,16 @@
         <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4">
         <v>1.0</v>
       </c>
       <c r="E22" s="4">
-        <v>2319.0</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>97</v>
+        <v>1779.0</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4">
         <v>1.0</v>
@@ -1988,8 +2094,8 @@
       <c r="E23" s="4">
         <v>54.0</v>
       </c>
-      <c r="F23" s="18" t="s">
-        <v>99</v>
+      <c r="F23" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -2000,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" s="4">
         <v>1.0</v>
@@ -2008,8 +2114,8 @@
       <c r="E24" s="4">
         <v>212.0</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>101</v>
+      <c r="F24" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -2023,7 +2129,7 @@
         <v>1.0</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="b">
@@ -2033,11 +2139,11 @@
         <v>0</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="b">
@@ -2047,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4">
         <v>2.0</v>
@@ -2055,11 +2161,11 @@
       <c r="E27" s="4">
         <v>2699.0</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>104</v>
+      <c r="F27" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -2070,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4">
         <v>1.0</v>
@@ -2078,8 +2184,8 @@
       <c r="E28" s="4">
         <v>89.0</v>
       </c>
-      <c r="F28" s="19" t="s">
-        <v>107</v>
+      <c r="F28" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -2090,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4">
         <v>1.0</v>
@@ -2098,8 +2204,8 @@
       <c r="E29" s="4">
         <v>27.0</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>109</v>
+      <c r="F29" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -2110,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D30" s="4">
         <v>3.0</v>
@@ -2118,8 +2224,8 @@
       <c r="E30" s="4">
         <v>100.0</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>111</v>
+      <c r="F30" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -2130,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" s="4">
         <v>3.0</v>
@@ -2138,8 +2244,8 @@
       <c r="E31" s="4">
         <v>20.0</v>
       </c>
-      <c r="F31" s="19" t="s">
-        <v>113</v>
+      <c r="F31" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -2150,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D32" s="4">
         <v>1.0</v>
@@ -2158,8 +2264,8 @@
       <c r="E32" s="4">
         <v>85.0</v>
       </c>
-      <c r="F32" s="18" t="s">
-        <v>115</v>
+      <c r="F32" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -2170,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D33" s="4">
         <v>2.0</v>
@@ -2178,8 +2284,8 @@
       <c r="E33" s="4">
         <v>85.0</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>117</v>
+      <c r="F33" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -2190,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" s="4">
         <v>2.0</v>
@@ -2198,11 +2304,11 @@
       <c r="E34" s="4">
         <v>870.0</v>
       </c>
-      <c r="F34" s="19" t="s">
-        <v>119</v>
+      <c r="F34" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -2213,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D35" s="4">
         <v>2.0</v>
@@ -2221,8 +2327,8 @@
       <c r="E35" s="4">
         <v>75.0</v>
       </c>
-      <c r="F35" s="19" t="s">
-        <v>122</v>
+      <c r="F35" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -2233,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D36" s="4">
         <v>1.0</v>
@@ -2241,8 +2347,8 @@
       <c r="E36" s="4">
         <v>28.0</v>
       </c>
-      <c r="F36" s="18" t="s">
-        <v>124</v>
+      <c r="F36" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="37">
@@ -2253,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D37" s="4">
         <v>2.0</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="b">
@@ -2269,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" s="4">
         <v>2.0</v>
@@ -2277,8 +2383,8 @@
       <c r="E38" s="4">
         <v>200.0</v>
       </c>
-      <c r="F38" s="18" t="s">
-        <v>127</v>
+      <c r="F38" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -2289,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D39" s="4">
         <v>4.0</v>
@@ -2297,11 +2403,11 @@
       <c r="E39" s="4">
         <v>20.0</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>129</v>
+      <c r="F39" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40">
@@ -2312,15 +2418,15 @@
         <v>0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D40" s="4">
         <v>1.0</v>
       </c>
       <c r="E40" s="4"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="18"/>
       <c r="G40" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41">
@@ -2331,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D41" s="4">
         <v>1.0</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="13">
         <v>90.86</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>41</v>
+      <c r="F41" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42">
@@ -2370,9 +2476,9 @@
         <v>0</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="17"/>
+        <v>137</v>
+      </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="b">
@@ -2382,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="4">
         <v>3.0</v>
@@ -2390,8 +2496,8 @@
       <c r="E45" s="4">
         <v>30.0</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>137</v>
+      <c r="F45" s="19" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="46">
@@ -2402,14 +2508,14 @@
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D46" s="4">
         <v>3.0</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="18" t="s">
-        <v>139</v>
+      <c r="F46" s="19" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47">
@@ -2420,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="4">
         <v>3.0</v>
@@ -2428,8 +2534,8 @@
       <c r="E47" s="4">
         <v>10.0</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>141</v>
+      <c r="F47" s="19" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="48">
@@ -2439,7 +2545,7 @@
       <c r="B48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F48" s="17"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="b">
@@ -2449,9 +2555,9 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F49" s="17"/>
+        <v>144</v>
+      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="b">
@@ -2461,9 +2567,11 @@
         <v>0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="b">
@@ -2473,2910 +2581,2910 @@
         <v>0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="17"/>
+        <v>147</v>
+      </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" ht="42.75" customHeight="1">
-      <c r="C55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="C55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="10">
         <f>SUMPRODUCT(D2:D54,E2:E54)</f>
-        <v>25144.11</v>
+        <v>14802.11</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" s="17"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57">
-      <c r="F57" s="17"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58">
-      <c r="F58" s="17"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59">
-      <c r="F59" s="17"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60">
-      <c r="F60" s="17"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61">
-      <c r="F61" s="17"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62">
-      <c r="F62" s="17"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63">
-      <c r="F63" s="17"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64">
-      <c r="F64" s="17"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65">
-      <c r="F65" s="17"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66">
-      <c r="F66" s="17"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67">
-      <c r="F67" s="17"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68">
-      <c r="F68" s="17"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69">
-      <c r="F69" s="17"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70">
-      <c r="F70" s="17"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71">
-      <c r="F71" s="17"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72">
-      <c r="F72" s="17"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73">
-      <c r="F73" s="17"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74">
-      <c r="F74" s="17"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75">
-      <c r="F75" s="17"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76">
-      <c r="F76" s="17"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77">
-      <c r="F77" s="17"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78">
-      <c r="F78" s="17"/>
+      <c r="F78" s="18"/>
     </row>
     <row r="79">
-      <c r="F79" s="17"/>
+      <c r="F79" s="18"/>
     </row>
     <row r="80">
-      <c r="F80" s="17"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81">
-      <c r="F81" s="17"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82">
-      <c r="F82" s="17"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83">
-      <c r="F83" s="17"/>
+      <c r="F83" s="18"/>
     </row>
     <row r="84">
-      <c r="F84" s="17"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85">
-      <c r="F85" s="17"/>
+      <c r="F85" s="18"/>
     </row>
     <row r="86">
-      <c r="F86" s="17"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87">
-      <c r="F87" s="17"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88">
-      <c r="F88" s="17"/>
+      <c r="F88" s="18"/>
     </row>
     <row r="89">
-      <c r="F89" s="17"/>
+      <c r="F89" s="18"/>
     </row>
     <row r="90">
-      <c r="F90" s="17"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91">
-      <c r="F91" s="17"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92">
-      <c r="F92" s="17"/>
+      <c r="F92" s="18"/>
     </row>
     <row r="93">
-      <c r="F93" s="17"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94">
-      <c r="F94" s="17"/>
+      <c r="F94" s="18"/>
     </row>
     <row r="95">
-      <c r="F95" s="17"/>
+      <c r="F95" s="18"/>
     </row>
     <row r="96">
-      <c r="F96" s="17"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97">
-      <c r="F97" s="17"/>
+      <c r="F97" s="18"/>
     </row>
     <row r="98">
-      <c r="F98" s="17"/>
+      <c r="F98" s="18"/>
     </row>
     <row r="99">
-      <c r="F99" s="17"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100">
-      <c r="F100" s="17"/>
+      <c r="F100" s="18"/>
     </row>
     <row r="101">
-      <c r="F101" s="17"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102">
-      <c r="F102" s="17"/>
+      <c r="F102" s="18"/>
     </row>
     <row r="103">
-      <c r="F103" s="17"/>
+      <c r="F103" s="18"/>
     </row>
     <row r="104">
-      <c r="F104" s="17"/>
+      <c r="F104" s="18"/>
     </row>
     <row r="105">
-      <c r="F105" s="17"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106">
-      <c r="F106" s="17"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107">
-      <c r="F107" s="17"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108">
-      <c r="F108" s="17"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109">
-      <c r="F109" s="17"/>
+      <c r="F109" s="18"/>
     </row>
     <row r="110">
-      <c r="F110" s="17"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111">
-      <c r="F111" s="17"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112">
-      <c r="F112" s="17"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113">
-      <c r="F113" s="17"/>
+      <c r="F113" s="18"/>
     </row>
     <row r="114">
-      <c r="F114" s="17"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115">
-      <c r="F115" s="17"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116">
-      <c r="F116" s="17"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117">
-      <c r="F117" s="17"/>
+      <c r="F117" s="18"/>
     </row>
     <row r="118">
-      <c r="F118" s="17"/>
+      <c r="F118" s="18"/>
     </row>
     <row r="119">
-      <c r="F119" s="17"/>
+      <c r="F119" s="18"/>
     </row>
     <row r="120">
-      <c r="F120" s="17"/>
+      <c r="F120" s="18"/>
     </row>
     <row r="121">
-      <c r="F121" s="17"/>
+      <c r="F121" s="18"/>
     </row>
     <row r="122">
-      <c r="F122" s="17"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123">
-      <c r="F123" s="17"/>
+      <c r="F123" s="18"/>
     </row>
     <row r="124">
-      <c r="F124" s="17"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125">
-      <c r="F125" s="17"/>
+      <c r="F125" s="18"/>
     </row>
     <row r="126">
-      <c r="F126" s="17"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127">
-      <c r="F127" s="17"/>
+      <c r="F127" s="18"/>
     </row>
     <row r="128">
-      <c r="F128" s="17"/>
+      <c r="F128" s="18"/>
     </row>
     <row r="129">
-      <c r="F129" s="17"/>
+      <c r="F129" s="18"/>
     </row>
     <row r="130">
-      <c r="F130" s="17"/>
+      <c r="F130" s="18"/>
     </row>
     <row r="131">
-      <c r="F131" s="17"/>
+      <c r="F131" s="18"/>
     </row>
     <row r="132">
-      <c r="F132" s="17"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133">
-      <c r="F133" s="17"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134">
-      <c r="F134" s="17"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135">
-      <c r="F135" s="17"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136">
-      <c r="F136" s="17"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137">
-      <c r="F137" s="17"/>
+      <c r="F137" s="18"/>
     </row>
     <row r="138">
-      <c r="F138" s="17"/>
+      <c r="F138" s="18"/>
     </row>
     <row r="139">
-      <c r="F139" s="17"/>
+      <c r="F139" s="18"/>
     </row>
     <row r="140">
-      <c r="F140" s="17"/>
+      <c r="F140" s="18"/>
     </row>
     <row r="141">
-      <c r="F141" s="17"/>
+      <c r="F141" s="18"/>
     </row>
     <row r="142">
-      <c r="F142" s="17"/>
+      <c r="F142" s="18"/>
     </row>
     <row r="143">
-      <c r="F143" s="17"/>
+      <c r="F143" s="18"/>
     </row>
     <row r="144">
-      <c r="F144" s="17"/>
+      <c r="F144" s="18"/>
     </row>
     <row r="145">
-      <c r="F145" s="17"/>
+      <c r="F145" s="18"/>
     </row>
     <row r="146">
-      <c r="F146" s="17"/>
+      <c r="F146" s="18"/>
     </row>
     <row r="147">
-      <c r="F147" s="17"/>
+      <c r="F147" s="18"/>
     </row>
     <row r="148">
-      <c r="F148" s="17"/>
+      <c r="F148" s="18"/>
     </row>
     <row r="149">
-      <c r="F149" s="17"/>
+      <c r="F149" s="18"/>
     </row>
     <row r="150">
-      <c r="F150" s="17"/>
+      <c r="F150" s="18"/>
     </row>
     <row r="151">
-      <c r="F151" s="17"/>
+      <c r="F151" s="18"/>
     </row>
     <row r="152">
-      <c r="F152" s="17"/>
+      <c r="F152" s="18"/>
     </row>
     <row r="153">
-      <c r="F153" s="17"/>
+      <c r="F153" s="18"/>
     </row>
     <row r="154">
-      <c r="F154" s="17"/>
+      <c r="F154" s="18"/>
     </row>
     <row r="155">
-      <c r="F155" s="17"/>
+      <c r="F155" s="18"/>
     </row>
     <row r="156">
-      <c r="F156" s="17"/>
+      <c r="F156" s="18"/>
     </row>
     <row r="157">
-      <c r="F157" s="17"/>
+      <c r="F157" s="18"/>
     </row>
     <row r="158">
-      <c r="F158" s="17"/>
+      <c r="F158" s="18"/>
     </row>
     <row r="159">
-      <c r="F159" s="17"/>
+      <c r="F159" s="18"/>
     </row>
     <row r="160">
-      <c r="F160" s="17"/>
+      <c r="F160" s="18"/>
     </row>
     <row r="161">
-      <c r="F161" s="17"/>
+      <c r="F161" s="18"/>
     </row>
     <row r="162">
-      <c r="F162" s="17"/>
+      <c r="F162" s="18"/>
     </row>
     <row r="163">
-      <c r="F163" s="17"/>
+      <c r="F163" s="18"/>
     </row>
     <row r="164">
-      <c r="F164" s="17"/>
+      <c r="F164" s="18"/>
     </row>
     <row r="165">
-      <c r="F165" s="17"/>
+      <c r="F165" s="18"/>
     </row>
     <row r="166">
-      <c r="F166" s="17"/>
+      <c r="F166" s="18"/>
     </row>
     <row r="167">
-      <c r="F167" s="17"/>
+      <c r="F167" s="18"/>
     </row>
     <row r="168">
-      <c r="F168" s="17"/>
+      <c r="F168" s="18"/>
     </row>
     <row r="169">
-      <c r="F169" s="17"/>
+      <c r="F169" s="18"/>
     </row>
     <row r="170">
-      <c r="F170" s="17"/>
+      <c r="F170" s="18"/>
     </row>
     <row r="171">
-      <c r="F171" s="17"/>
+      <c r="F171" s="18"/>
     </row>
     <row r="172">
-      <c r="F172" s="17"/>
+      <c r="F172" s="18"/>
     </row>
     <row r="173">
-      <c r="F173" s="17"/>
+      <c r="F173" s="18"/>
     </row>
     <row r="174">
-      <c r="F174" s="17"/>
+      <c r="F174" s="18"/>
     </row>
     <row r="175">
-      <c r="F175" s="17"/>
+      <c r="F175" s="18"/>
     </row>
     <row r="176">
-      <c r="F176" s="17"/>
+      <c r="F176" s="18"/>
     </row>
     <row r="177">
-      <c r="F177" s="17"/>
+      <c r="F177" s="18"/>
     </row>
     <row r="178">
-      <c r="F178" s="17"/>
+      <c r="F178" s="18"/>
     </row>
     <row r="179">
-      <c r="F179" s="17"/>
+      <c r="F179" s="18"/>
     </row>
     <row r="180">
-      <c r="F180" s="17"/>
+      <c r="F180" s="18"/>
     </row>
     <row r="181">
-      <c r="F181" s="17"/>
+      <c r="F181" s="18"/>
     </row>
     <row r="182">
-      <c r="F182" s="17"/>
+      <c r="F182" s="18"/>
     </row>
     <row r="183">
-      <c r="F183" s="17"/>
+      <c r="F183" s="18"/>
     </row>
     <row r="184">
-      <c r="F184" s="17"/>
+      <c r="F184" s="18"/>
     </row>
     <row r="185">
-      <c r="F185" s="17"/>
+      <c r="F185" s="18"/>
     </row>
     <row r="186">
-      <c r="F186" s="17"/>
+      <c r="F186" s="18"/>
     </row>
     <row r="187">
-      <c r="F187" s="17"/>
+      <c r="F187" s="18"/>
     </row>
     <row r="188">
-      <c r="F188" s="17"/>
+      <c r="F188" s="18"/>
     </row>
     <row r="189">
-      <c r="F189" s="17"/>
+      <c r="F189" s="18"/>
     </row>
     <row r="190">
-      <c r="F190" s="17"/>
+      <c r="F190" s="18"/>
     </row>
     <row r="191">
-      <c r="F191" s="17"/>
+      <c r="F191" s="18"/>
     </row>
     <row r="192">
-      <c r="F192" s="17"/>
+      <c r="F192" s="18"/>
     </row>
     <row r="193">
-      <c r="F193" s="17"/>
+      <c r="F193" s="18"/>
     </row>
     <row r="194">
-      <c r="F194" s="17"/>
+      <c r="F194" s="18"/>
     </row>
     <row r="195">
-      <c r="F195" s="17"/>
+      <c r="F195" s="18"/>
     </row>
     <row r="196">
-      <c r="F196" s="17"/>
+      <c r="F196" s="18"/>
     </row>
     <row r="197">
-      <c r="F197" s="17"/>
+      <c r="F197" s="18"/>
     </row>
     <row r="198">
-      <c r="F198" s="17"/>
+      <c r="F198" s="18"/>
     </row>
     <row r="199">
-      <c r="F199" s="17"/>
+      <c r="F199" s="18"/>
     </row>
     <row r="200">
-      <c r="F200" s="17"/>
+      <c r="F200" s="18"/>
     </row>
     <row r="201">
-      <c r="F201" s="17"/>
+      <c r="F201" s="18"/>
     </row>
     <row r="202">
-      <c r="F202" s="17"/>
+      <c r="F202" s="18"/>
     </row>
     <row r="203">
-      <c r="F203" s="17"/>
+      <c r="F203" s="18"/>
     </row>
     <row r="204">
-      <c r="F204" s="17"/>
+      <c r="F204" s="18"/>
     </row>
     <row r="205">
-      <c r="F205" s="17"/>
+      <c r="F205" s="18"/>
     </row>
     <row r="206">
-      <c r="F206" s="17"/>
+      <c r="F206" s="18"/>
     </row>
     <row r="207">
-      <c r="F207" s="17"/>
+      <c r="F207" s="18"/>
     </row>
     <row r="208">
-      <c r="F208" s="17"/>
+      <c r="F208" s="18"/>
     </row>
     <row r="209">
-      <c r="F209" s="17"/>
+      <c r="F209" s="18"/>
     </row>
     <row r="210">
-      <c r="F210" s="17"/>
+      <c r="F210" s="18"/>
     </row>
     <row r="211">
-      <c r="F211" s="17"/>
+      <c r="F211" s="18"/>
     </row>
     <row r="212">
-      <c r="F212" s="17"/>
+      <c r="F212" s="18"/>
     </row>
     <row r="213">
-      <c r="F213" s="17"/>
+      <c r="F213" s="18"/>
     </row>
     <row r="214">
-      <c r="F214" s="17"/>
+      <c r="F214" s="18"/>
     </row>
     <row r="215">
-      <c r="F215" s="17"/>
+      <c r="F215" s="18"/>
     </row>
     <row r="216">
-      <c r="F216" s="17"/>
+      <c r="F216" s="18"/>
     </row>
     <row r="217">
-      <c r="F217" s="17"/>
+      <c r="F217" s="18"/>
     </row>
     <row r="218">
-      <c r="F218" s="17"/>
+      <c r="F218" s="18"/>
     </row>
     <row r="219">
-      <c r="F219" s="17"/>
+      <c r="F219" s="18"/>
     </row>
     <row r="220">
-      <c r="F220" s="17"/>
+      <c r="F220" s="18"/>
     </row>
     <row r="221">
-      <c r="F221" s="17"/>
+      <c r="F221" s="18"/>
     </row>
     <row r="222">
-      <c r="F222" s="17"/>
+      <c r="F222" s="18"/>
     </row>
     <row r="223">
-      <c r="F223" s="17"/>
+      <c r="F223" s="18"/>
     </row>
     <row r="224">
-      <c r="F224" s="17"/>
+      <c r="F224" s="18"/>
     </row>
     <row r="225">
-      <c r="F225" s="17"/>
+      <c r="F225" s="18"/>
     </row>
     <row r="226">
-      <c r="F226" s="17"/>
+      <c r="F226" s="18"/>
     </row>
     <row r="227">
-      <c r="F227" s="17"/>
+      <c r="F227" s="18"/>
     </row>
     <row r="228">
-      <c r="F228" s="17"/>
+      <c r="F228" s="18"/>
     </row>
     <row r="229">
-      <c r="F229" s="17"/>
+      <c r="F229" s="18"/>
     </row>
     <row r="230">
-      <c r="F230" s="17"/>
+      <c r="F230" s="18"/>
     </row>
     <row r="231">
-      <c r="F231" s="17"/>
+      <c r="F231" s="18"/>
     </row>
     <row r="232">
-      <c r="F232" s="17"/>
+      <c r="F232" s="18"/>
     </row>
     <row r="233">
-      <c r="F233" s="17"/>
+      <c r="F233" s="18"/>
     </row>
     <row r="234">
-      <c r="F234" s="17"/>
+      <c r="F234" s="18"/>
     </row>
     <row r="235">
-      <c r="F235" s="17"/>
+      <c r="F235" s="18"/>
     </row>
     <row r="236">
-      <c r="F236" s="17"/>
+      <c r="F236" s="18"/>
     </row>
     <row r="237">
-      <c r="F237" s="17"/>
+      <c r="F237" s="18"/>
     </row>
     <row r="238">
-      <c r="F238" s="17"/>
+      <c r="F238" s="18"/>
     </row>
     <row r="239">
-      <c r="F239" s="17"/>
+      <c r="F239" s="18"/>
     </row>
     <row r="240">
-      <c r="F240" s="17"/>
+      <c r="F240" s="18"/>
     </row>
     <row r="241">
-      <c r="F241" s="17"/>
+      <c r="F241" s="18"/>
     </row>
     <row r="242">
-      <c r="F242" s="17"/>
+      <c r="F242" s="18"/>
     </row>
     <row r="243">
-      <c r="F243" s="17"/>
+      <c r="F243" s="18"/>
     </row>
     <row r="244">
-      <c r="F244" s="17"/>
+      <c r="F244" s="18"/>
     </row>
     <row r="245">
-      <c r="F245" s="17"/>
+      <c r="F245" s="18"/>
     </row>
     <row r="246">
-      <c r="F246" s="17"/>
+      <c r="F246" s="18"/>
     </row>
     <row r="247">
-      <c r="F247" s="17"/>
+      <c r="F247" s="18"/>
     </row>
     <row r="248">
-      <c r="F248" s="17"/>
+      <c r="F248" s="18"/>
     </row>
     <row r="249">
-      <c r="F249" s="17"/>
+      <c r="F249" s="18"/>
     </row>
     <row r="250">
-      <c r="F250" s="17"/>
+      <c r="F250" s="18"/>
     </row>
     <row r="251">
-      <c r="F251" s="17"/>
+      <c r="F251" s="18"/>
     </row>
     <row r="252">
-      <c r="F252" s="17"/>
+      <c r="F252" s="18"/>
     </row>
     <row r="253">
-      <c r="F253" s="17"/>
+      <c r="F253" s="18"/>
     </row>
     <row r="254">
-      <c r="F254" s="17"/>
+      <c r="F254" s="18"/>
     </row>
     <row r="255">
-      <c r="F255" s="17"/>
+      <c r="F255" s="18"/>
     </row>
     <row r="256">
-      <c r="F256" s="17"/>
+      <c r="F256" s="18"/>
     </row>
     <row r="257">
-      <c r="F257" s="17"/>
+      <c r="F257" s="18"/>
     </row>
     <row r="258">
-      <c r="F258" s="17"/>
+      <c r="F258" s="18"/>
     </row>
     <row r="259">
-      <c r="F259" s="17"/>
+      <c r="F259" s="18"/>
     </row>
     <row r="260">
-      <c r="F260" s="17"/>
+      <c r="F260" s="18"/>
     </row>
     <row r="261">
-      <c r="F261" s="17"/>
+      <c r="F261" s="18"/>
     </row>
     <row r="262">
-      <c r="F262" s="17"/>
+      <c r="F262" s="18"/>
     </row>
     <row r="263">
-      <c r="F263" s="17"/>
+      <c r="F263" s="18"/>
     </row>
     <row r="264">
-      <c r="F264" s="17"/>
+      <c r="F264" s="18"/>
     </row>
     <row r="265">
-      <c r="F265" s="17"/>
+      <c r="F265" s="18"/>
     </row>
     <row r="266">
-      <c r="F266" s="17"/>
+      <c r="F266" s="18"/>
     </row>
     <row r="267">
-      <c r="F267" s="17"/>
+      <c r="F267" s="18"/>
     </row>
     <row r="268">
-      <c r="F268" s="17"/>
+      <c r="F268" s="18"/>
     </row>
     <row r="269">
-      <c r="F269" s="17"/>
+      <c r="F269" s="18"/>
     </row>
     <row r="270">
-      <c r="F270" s="17"/>
+      <c r="F270" s="18"/>
     </row>
     <row r="271">
-      <c r="F271" s="17"/>
+      <c r="F271" s="18"/>
     </row>
     <row r="272">
-      <c r="F272" s="17"/>
+      <c r="F272" s="18"/>
     </row>
     <row r="273">
-      <c r="F273" s="17"/>
+      <c r="F273" s="18"/>
     </row>
     <row r="274">
-      <c r="F274" s="17"/>
+      <c r="F274" s="18"/>
     </row>
     <row r="275">
-      <c r="F275" s="17"/>
+      <c r="F275" s="18"/>
     </row>
     <row r="276">
-      <c r="F276" s="17"/>
+      <c r="F276" s="18"/>
     </row>
     <row r="277">
-      <c r="F277" s="17"/>
+      <c r="F277" s="18"/>
     </row>
     <row r="278">
-      <c r="F278" s="17"/>
+      <c r="F278" s="18"/>
     </row>
     <row r="279">
-      <c r="F279" s="17"/>
+      <c r="F279" s="18"/>
     </row>
     <row r="280">
-      <c r="F280" s="17"/>
+      <c r="F280" s="18"/>
     </row>
     <row r="281">
-      <c r="F281" s="17"/>
+      <c r="F281" s="18"/>
     </row>
     <row r="282">
-      <c r="F282" s="17"/>
+      <c r="F282" s="18"/>
     </row>
     <row r="283">
-      <c r="F283" s="17"/>
+      <c r="F283" s="18"/>
     </row>
     <row r="284">
-      <c r="F284" s="17"/>
+      <c r="F284" s="18"/>
     </row>
     <row r="285">
-      <c r="F285" s="17"/>
+      <c r="F285" s="18"/>
     </row>
     <row r="286">
-      <c r="F286" s="17"/>
+      <c r="F286" s="18"/>
     </row>
     <row r="287">
-      <c r="F287" s="17"/>
+      <c r="F287" s="18"/>
     </row>
     <row r="288">
-      <c r="F288" s="17"/>
+      <c r="F288" s="18"/>
     </row>
     <row r="289">
-      <c r="F289" s="17"/>
+      <c r="F289" s="18"/>
     </row>
     <row r="290">
-      <c r="F290" s="17"/>
+      <c r="F290" s="18"/>
     </row>
     <row r="291">
-      <c r="F291" s="17"/>
+      <c r="F291" s="18"/>
     </row>
     <row r="292">
-      <c r="F292" s="17"/>
+      <c r="F292" s="18"/>
     </row>
     <row r="293">
-      <c r="F293" s="17"/>
+      <c r="F293" s="18"/>
     </row>
     <row r="294">
-      <c r="F294" s="17"/>
+      <c r="F294" s="18"/>
     </row>
     <row r="295">
-      <c r="F295" s="17"/>
+      <c r="F295" s="18"/>
     </row>
     <row r="296">
-      <c r="F296" s="17"/>
+      <c r="F296" s="18"/>
     </row>
     <row r="297">
-      <c r="F297" s="17"/>
+      <c r="F297" s="18"/>
     </row>
     <row r="298">
-      <c r="F298" s="17"/>
+      <c r="F298" s="18"/>
     </row>
     <row r="299">
-      <c r="F299" s="17"/>
+      <c r="F299" s="18"/>
     </row>
     <row r="300">
-      <c r="F300" s="17"/>
+      <c r="F300" s="18"/>
     </row>
     <row r="301">
-      <c r="F301" s="17"/>
+      <c r="F301" s="18"/>
     </row>
     <row r="302">
-      <c r="F302" s="17"/>
+      <c r="F302" s="18"/>
     </row>
     <row r="303">
-      <c r="F303" s="17"/>
+      <c r="F303" s="18"/>
     </row>
     <row r="304">
-      <c r="F304" s="17"/>
+      <c r="F304" s="18"/>
     </row>
     <row r="305">
-      <c r="F305" s="17"/>
+      <c r="F305" s="18"/>
     </row>
     <row r="306">
-      <c r="F306" s="17"/>
+      <c r="F306" s="18"/>
     </row>
     <row r="307">
-      <c r="F307" s="17"/>
+      <c r="F307" s="18"/>
     </row>
     <row r="308">
-      <c r="F308" s="17"/>
+      <c r="F308" s="18"/>
     </row>
     <row r="309">
-      <c r="F309" s="17"/>
+      <c r="F309" s="18"/>
     </row>
     <row r="310">
-      <c r="F310" s="17"/>
+      <c r="F310" s="18"/>
     </row>
     <row r="311">
-      <c r="F311" s="17"/>
+      <c r="F311" s="18"/>
     </row>
     <row r="312">
-      <c r="F312" s="17"/>
+      <c r="F312" s="18"/>
     </row>
     <row r="313">
-      <c r="F313" s="17"/>
+      <c r="F313" s="18"/>
     </row>
     <row r="314">
-      <c r="F314" s="17"/>
+      <c r="F314" s="18"/>
     </row>
     <row r="315">
-      <c r="F315" s="17"/>
+      <c r="F315" s="18"/>
     </row>
     <row r="316">
-      <c r="F316" s="17"/>
+      <c r="F316" s="18"/>
     </row>
     <row r="317">
-      <c r="F317" s="17"/>
+      <c r="F317" s="18"/>
     </row>
     <row r="318">
-      <c r="F318" s="17"/>
+      <c r="F318" s="18"/>
     </row>
     <row r="319">
-      <c r="F319" s="17"/>
+      <c r="F319" s="18"/>
     </row>
     <row r="320">
-      <c r="F320" s="17"/>
+      <c r="F320" s="18"/>
     </row>
     <row r="321">
-      <c r="F321" s="17"/>
+      <c r="F321" s="18"/>
     </row>
     <row r="322">
-      <c r="F322" s="17"/>
+      <c r="F322" s="18"/>
     </row>
     <row r="323">
-      <c r="F323" s="17"/>
+      <c r="F323" s="18"/>
     </row>
     <row r="324">
-      <c r="F324" s="17"/>
+      <c r="F324" s="18"/>
     </row>
     <row r="325">
-      <c r="F325" s="17"/>
+      <c r="F325" s="18"/>
     </row>
     <row r="326">
-      <c r="F326" s="17"/>
+      <c r="F326" s="18"/>
     </row>
     <row r="327">
-      <c r="F327" s="17"/>
+      <c r="F327" s="18"/>
     </row>
     <row r="328">
-      <c r="F328" s="17"/>
+      <c r="F328" s="18"/>
     </row>
     <row r="329">
-      <c r="F329" s="17"/>
+      <c r="F329" s="18"/>
     </row>
     <row r="330">
-      <c r="F330" s="17"/>
+      <c r="F330" s="18"/>
     </row>
     <row r="331">
-      <c r="F331" s="17"/>
+      <c r="F331" s="18"/>
     </row>
     <row r="332">
-      <c r="F332" s="17"/>
+      <c r="F332" s="18"/>
     </row>
     <row r="333">
-      <c r="F333" s="17"/>
+      <c r="F333" s="18"/>
     </row>
     <row r="334">
-      <c r="F334" s="17"/>
+      <c r="F334" s="18"/>
     </row>
     <row r="335">
-      <c r="F335" s="17"/>
+      <c r="F335" s="18"/>
     </row>
     <row r="336">
-      <c r="F336" s="17"/>
+      <c r="F336" s="18"/>
     </row>
     <row r="337">
-      <c r="F337" s="17"/>
+      <c r="F337" s="18"/>
     </row>
     <row r="338">
-      <c r="F338" s="17"/>
+      <c r="F338" s="18"/>
     </row>
     <row r="339">
-      <c r="F339" s="17"/>
+      <c r="F339" s="18"/>
     </row>
     <row r="340">
-      <c r="F340" s="17"/>
+      <c r="F340" s="18"/>
     </row>
     <row r="341">
-      <c r="F341" s="17"/>
+      <c r="F341" s="18"/>
     </row>
     <row r="342">
-      <c r="F342" s="17"/>
+      <c r="F342" s="18"/>
     </row>
     <row r="343">
-      <c r="F343" s="17"/>
+      <c r="F343" s="18"/>
     </row>
     <row r="344">
-      <c r="F344" s="17"/>
+      <c r="F344" s="18"/>
     </row>
     <row r="345">
-      <c r="F345" s="17"/>
+      <c r="F345" s="18"/>
     </row>
     <row r="346">
-      <c r="F346" s="17"/>
+      <c r="F346" s="18"/>
     </row>
     <row r="347">
-      <c r="F347" s="17"/>
+      <c r="F347" s="18"/>
     </row>
     <row r="348">
-      <c r="F348" s="17"/>
+      <c r="F348" s="18"/>
     </row>
     <row r="349">
-      <c r="F349" s="17"/>
+      <c r="F349" s="18"/>
     </row>
     <row r="350">
-      <c r="F350" s="17"/>
+      <c r="F350" s="18"/>
     </row>
     <row r="351">
-      <c r="F351" s="17"/>
+      <c r="F351" s="18"/>
     </row>
     <row r="352">
-      <c r="F352" s="17"/>
+      <c r="F352" s="18"/>
     </row>
     <row r="353">
-      <c r="F353" s="17"/>
+      <c r="F353" s="18"/>
     </row>
     <row r="354">
-      <c r="F354" s="17"/>
+      <c r="F354" s="18"/>
     </row>
     <row r="355">
-      <c r="F355" s="17"/>
+      <c r="F355" s="18"/>
     </row>
     <row r="356">
-      <c r="F356" s="17"/>
+      <c r="F356" s="18"/>
     </row>
     <row r="357">
-      <c r="F357" s="17"/>
+      <c r="F357" s="18"/>
     </row>
     <row r="358">
-      <c r="F358" s="17"/>
+      <c r="F358" s="18"/>
     </row>
     <row r="359">
-      <c r="F359" s="17"/>
+      <c r="F359" s="18"/>
     </row>
     <row r="360">
-      <c r="F360" s="17"/>
+      <c r="F360" s="18"/>
     </row>
     <row r="361">
-      <c r="F361" s="17"/>
+      <c r="F361" s="18"/>
     </row>
     <row r="362">
-      <c r="F362" s="17"/>
+      <c r="F362" s="18"/>
     </row>
     <row r="363">
-      <c r="F363" s="17"/>
+      <c r="F363" s="18"/>
     </row>
     <row r="364">
-      <c r="F364" s="17"/>
+      <c r="F364" s="18"/>
     </row>
     <row r="365">
-      <c r="F365" s="17"/>
+      <c r="F365" s="18"/>
     </row>
     <row r="366">
-      <c r="F366" s="17"/>
+      <c r="F366" s="18"/>
     </row>
     <row r="367">
-      <c r="F367" s="17"/>
+      <c r="F367" s="18"/>
     </row>
     <row r="368">
-      <c r="F368" s="17"/>
+      <c r="F368" s="18"/>
     </row>
     <row r="369">
-      <c r="F369" s="17"/>
+      <c r="F369" s="18"/>
     </row>
     <row r="370">
-      <c r="F370" s="17"/>
+      <c r="F370" s="18"/>
     </row>
     <row r="371">
-      <c r="F371" s="17"/>
+      <c r="F371" s="18"/>
     </row>
     <row r="372">
-      <c r="F372" s="17"/>
+      <c r="F372" s="18"/>
     </row>
     <row r="373">
-      <c r="F373" s="17"/>
+      <c r="F373" s="18"/>
     </row>
     <row r="374">
-      <c r="F374" s="17"/>
+      <c r="F374" s="18"/>
     </row>
     <row r="375">
-      <c r="F375" s="17"/>
+      <c r="F375" s="18"/>
     </row>
     <row r="376">
-      <c r="F376" s="17"/>
+      <c r="F376" s="18"/>
     </row>
     <row r="377">
-      <c r="F377" s="17"/>
+      <c r="F377" s="18"/>
     </row>
     <row r="378">
-      <c r="F378" s="17"/>
+      <c r="F378" s="18"/>
     </row>
     <row r="379">
-      <c r="F379" s="17"/>
+      <c r="F379" s="18"/>
     </row>
     <row r="380">
-      <c r="F380" s="17"/>
+      <c r="F380" s="18"/>
     </row>
     <row r="381">
-      <c r="F381" s="17"/>
+      <c r="F381" s="18"/>
     </row>
     <row r="382">
-      <c r="F382" s="17"/>
+      <c r="F382" s="18"/>
     </row>
     <row r="383">
-      <c r="F383" s="17"/>
+      <c r="F383" s="18"/>
     </row>
     <row r="384">
-      <c r="F384" s="17"/>
+      <c r="F384" s="18"/>
     </row>
     <row r="385">
-      <c r="F385" s="17"/>
+      <c r="F385" s="18"/>
     </row>
     <row r="386">
-      <c r="F386" s="17"/>
+      <c r="F386" s="18"/>
     </row>
     <row r="387">
-      <c r="F387" s="17"/>
+      <c r="F387" s="18"/>
     </row>
     <row r="388">
-      <c r="F388" s="17"/>
+      <c r="F388" s="18"/>
     </row>
     <row r="389">
-      <c r="F389" s="17"/>
+      <c r="F389" s="18"/>
     </row>
     <row r="390">
-      <c r="F390" s="17"/>
+      <c r="F390" s="18"/>
     </row>
     <row r="391">
-      <c r="F391" s="17"/>
+      <c r="F391" s="18"/>
     </row>
     <row r="392">
-      <c r="F392" s="17"/>
+      <c r="F392" s="18"/>
     </row>
     <row r="393">
-      <c r="F393" s="17"/>
+      <c r="F393" s="18"/>
     </row>
     <row r="394">
-      <c r="F394" s="17"/>
+      <c r="F394" s="18"/>
     </row>
     <row r="395">
-      <c r="F395" s="17"/>
+      <c r="F395" s="18"/>
     </row>
     <row r="396">
-      <c r="F396" s="17"/>
+      <c r="F396" s="18"/>
     </row>
     <row r="397">
-      <c r="F397" s="17"/>
+      <c r="F397" s="18"/>
     </row>
     <row r="398">
-      <c r="F398" s="17"/>
+      <c r="F398" s="18"/>
     </row>
     <row r="399">
-      <c r="F399" s="17"/>
+      <c r="F399" s="18"/>
     </row>
     <row r="400">
-      <c r="F400" s="17"/>
+      <c r="F400" s="18"/>
     </row>
     <row r="401">
-      <c r="F401" s="17"/>
+      <c r="F401" s="18"/>
     </row>
     <row r="402">
-      <c r="F402" s="17"/>
+      <c r="F402" s="18"/>
     </row>
     <row r="403">
-      <c r="F403" s="17"/>
+      <c r="F403" s="18"/>
     </row>
     <row r="404">
-      <c r="F404" s="17"/>
+      <c r="F404" s="18"/>
     </row>
     <row r="405">
-      <c r="F405" s="17"/>
+      <c r="F405" s="18"/>
     </row>
     <row r="406">
-      <c r="F406" s="17"/>
+      <c r="F406" s="18"/>
     </row>
     <row r="407">
-      <c r="F407" s="17"/>
+      <c r="F407" s="18"/>
     </row>
     <row r="408">
-      <c r="F408" s="17"/>
+      <c r="F408" s="18"/>
     </row>
     <row r="409">
-      <c r="F409" s="17"/>
+      <c r="F409" s="18"/>
     </row>
     <row r="410">
-      <c r="F410" s="17"/>
+      <c r="F410" s="18"/>
     </row>
     <row r="411">
-      <c r="F411" s="17"/>
+      <c r="F411" s="18"/>
     </row>
     <row r="412">
-      <c r="F412" s="17"/>
+      <c r="F412" s="18"/>
     </row>
     <row r="413">
-      <c r="F413" s="17"/>
+      <c r="F413" s="18"/>
     </row>
     <row r="414">
-      <c r="F414" s="17"/>
+      <c r="F414" s="18"/>
     </row>
     <row r="415">
-      <c r="F415" s="17"/>
+      <c r="F415" s="18"/>
     </row>
     <row r="416">
-      <c r="F416" s="17"/>
+      <c r="F416" s="18"/>
     </row>
     <row r="417">
-      <c r="F417" s="17"/>
+      <c r="F417" s="18"/>
     </row>
     <row r="418">
-      <c r="F418" s="17"/>
+      <c r="F418" s="18"/>
     </row>
     <row r="419">
-      <c r="F419" s="17"/>
+      <c r="F419" s="18"/>
     </row>
     <row r="420">
-      <c r="F420" s="17"/>
+      <c r="F420" s="18"/>
     </row>
     <row r="421">
-      <c r="F421" s="17"/>
+      <c r="F421" s="18"/>
     </row>
     <row r="422">
-      <c r="F422" s="17"/>
+      <c r="F422" s="18"/>
     </row>
     <row r="423">
-      <c r="F423" s="17"/>
+      <c r="F423" s="18"/>
     </row>
     <row r="424">
-      <c r="F424" s="17"/>
+      <c r="F424" s="18"/>
     </row>
     <row r="425">
-      <c r="F425" s="17"/>
+      <c r="F425" s="18"/>
     </row>
     <row r="426">
-      <c r="F426" s="17"/>
+      <c r="F426" s="18"/>
     </row>
     <row r="427">
-      <c r="F427" s="17"/>
+      <c r="F427" s="18"/>
     </row>
     <row r="428">
-      <c r="F428" s="17"/>
+      <c r="F428" s="18"/>
     </row>
     <row r="429">
-      <c r="F429" s="17"/>
+      <c r="F429" s="18"/>
     </row>
     <row r="430">
-      <c r="F430" s="17"/>
+      <c r="F430" s="18"/>
     </row>
     <row r="431">
-      <c r="F431" s="17"/>
+      <c r="F431" s="18"/>
     </row>
     <row r="432">
-      <c r="F432" s="17"/>
+      <c r="F432" s="18"/>
     </row>
     <row r="433">
-      <c r="F433" s="17"/>
+      <c r="F433" s="18"/>
     </row>
     <row r="434">
-      <c r="F434" s="17"/>
+      <c r="F434" s="18"/>
     </row>
     <row r="435">
-      <c r="F435" s="17"/>
+      <c r="F435" s="18"/>
     </row>
     <row r="436">
-      <c r="F436" s="17"/>
+      <c r="F436" s="18"/>
     </row>
     <row r="437">
-      <c r="F437" s="17"/>
+      <c r="F437" s="18"/>
     </row>
     <row r="438">
-      <c r="F438" s="17"/>
+      <c r="F438" s="18"/>
     </row>
     <row r="439">
-      <c r="F439" s="17"/>
+      <c r="F439" s="18"/>
     </row>
     <row r="440">
-      <c r="F440" s="17"/>
+      <c r="F440" s="18"/>
     </row>
     <row r="441">
-      <c r="F441" s="17"/>
+      <c r="F441" s="18"/>
     </row>
     <row r="442">
-      <c r="F442" s="17"/>
+      <c r="F442" s="18"/>
     </row>
     <row r="443">
-      <c r="F443" s="17"/>
+      <c r="F443" s="18"/>
     </row>
     <row r="444">
-      <c r="F444" s="17"/>
+      <c r="F444" s="18"/>
     </row>
     <row r="445">
-      <c r="F445" s="17"/>
+      <c r="F445" s="18"/>
     </row>
     <row r="446">
-      <c r="F446" s="17"/>
+      <c r="F446" s="18"/>
     </row>
     <row r="447">
-      <c r="F447" s="17"/>
+      <c r="F447" s="18"/>
     </row>
     <row r="448">
-      <c r="F448" s="17"/>
+      <c r="F448" s="18"/>
     </row>
     <row r="449">
-      <c r="F449" s="17"/>
+      <c r="F449" s="18"/>
     </row>
     <row r="450">
-      <c r="F450" s="17"/>
+      <c r="F450" s="18"/>
     </row>
     <row r="451">
-      <c r="F451" s="17"/>
+      <c r="F451" s="18"/>
     </row>
     <row r="452">
-      <c r="F452" s="17"/>
+      <c r="F452" s="18"/>
     </row>
     <row r="453">
-      <c r="F453" s="17"/>
+      <c r="F453" s="18"/>
     </row>
     <row r="454">
-      <c r="F454" s="17"/>
+      <c r="F454" s="18"/>
     </row>
     <row r="455">
-      <c r="F455" s="17"/>
+      <c r="F455" s="18"/>
     </row>
     <row r="456">
-      <c r="F456" s="17"/>
+      <c r="F456" s="18"/>
     </row>
     <row r="457">
-      <c r="F457" s="17"/>
+      <c r="F457" s="18"/>
     </row>
     <row r="458">
-      <c r="F458" s="17"/>
+      <c r="F458" s="18"/>
     </row>
     <row r="459">
-      <c r="F459" s="17"/>
+      <c r="F459" s="18"/>
     </row>
     <row r="460">
-      <c r="F460" s="17"/>
+      <c r="F460" s="18"/>
     </row>
     <row r="461">
-      <c r="F461" s="17"/>
+      <c r="F461" s="18"/>
     </row>
     <row r="462">
-      <c r="F462" s="17"/>
+      <c r="F462" s="18"/>
     </row>
     <row r="463">
-      <c r="F463" s="17"/>
+      <c r="F463" s="18"/>
     </row>
     <row r="464">
-      <c r="F464" s="17"/>
+      <c r="F464" s="18"/>
     </row>
     <row r="465">
-      <c r="F465" s="17"/>
+      <c r="F465" s="18"/>
     </row>
     <row r="466">
-      <c r="F466" s="17"/>
+      <c r="F466" s="18"/>
     </row>
     <row r="467">
-      <c r="F467" s="17"/>
+      <c r="F467" s="18"/>
     </row>
     <row r="468">
-      <c r="F468" s="17"/>
+      <c r="F468" s="18"/>
     </row>
     <row r="469">
-      <c r="F469" s="17"/>
+      <c r="F469" s="18"/>
     </row>
     <row r="470">
-      <c r="F470" s="17"/>
+      <c r="F470" s="18"/>
     </row>
     <row r="471">
-      <c r="F471" s="17"/>
+      <c r="F471" s="18"/>
     </row>
     <row r="472">
-      <c r="F472" s="17"/>
+      <c r="F472" s="18"/>
     </row>
     <row r="473">
-      <c r="F473" s="17"/>
+      <c r="F473" s="18"/>
     </row>
     <row r="474">
-      <c r="F474" s="17"/>
+      <c r="F474" s="18"/>
     </row>
     <row r="475">
-      <c r="F475" s="17"/>
+      <c r="F475" s="18"/>
     </row>
     <row r="476">
-      <c r="F476" s="17"/>
+      <c r="F476" s="18"/>
     </row>
     <row r="477">
-      <c r="F477" s="17"/>
+      <c r="F477" s="18"/>
     </row>
     <row r="478">
-      <c r="F478" s="17"/>
+      <c r="F478" s="18"/>
     </row>
     <row r="479">
-      <c r="F479" s="17"/>
+      <c r="F479" s="18"/>
     </row>
     <row r="480">
-      <c r="F480" s="17"/>
+      <c r="F480" s="18"/>
     </row>
     <row r="481">
-      <c r="F481" s="17"/>
+      <c r="F481" s="18"/>
     </row>
     <row r="482">
-      <c r="F482" s="17"/>
+      <c r="F482" s="18"/>
     </row>
     <row r="483">
-      <c r="F483" s="17"/>
+      <c r="F483" s="18"/>
     </row>
     <row r="484">
-      <c r="F484" s="17"/>
+      <c r="F484" s="18"/>
     </row>
     <row r="485">
-      <c r="F485" s="17"/>
+      <c r="F485" s="18"/>
     </row>
     <row r="486">
-      <c r="F486" s="17"/>
+      <c r="F486" s="18"/>
     </row>
     <row r="487">
-      <c r="F487" s="17"/>
+      <c r="F487" s="18"/>
     </row>
     <row r="488">
-      <c r="F488" s="17"/>
+      <c r="F488" s="18"/>
     </row>
     <row r="489">
-      <c r="F489" s="17"/>
+      <c r="F489" s="18"/>
     </row>
     <row r="490">
-      <c r="F490" s="17"/>
+      <c r="F490" s="18"/>
     </row>
     <row r="491">
-      <c r="F491" s="17"/>
+      <c r="F491" s="18"/>
     </row>
     <row r="492">
-      <c r="F492" s="17"/>
+      <c r="F492" s="18"/>
     </row>
     <row r="493">
-      <c r="F493" s="17"/>
+      <c r="F493" s="18"/>
     </row>
     <row r="494">
-      <c r="F494" s="17"/>
+      <c r="F494" s="18"/>
     </row>
     <row r="495">
-      <c r="F495" s="17"/>
+      <c r="F495" s="18"/>
     </row>
     <row r="496">
-      <c r="F496" s="17"/>
+      <c r="F496" s="18"/>
     </row>
     <row r="497">
-      <c r="F497" s="17"/>
+      <c r="F497" s="18"/>
     </row>
     <row r="498">
-      <c r="F498" s="17"/>
+      <c r="F498" s="18"/>
     </row>
     <row r="499">
-      <c r="F499" s="17"/>
+      <c r="F499" s="18"/>
     </row>
     <row r="500">
-      <c r="F500" s="17"/>
+      <c r="F500" s="18"/>
     </row>
     <row r="501">
-      <c r="F501" s="17"/>
+      <c r="F501" s="18"/>
     </row>
     <row r="502">
-      <c r="F502" s="17"/>
+      <c r="F502" s="18"/>
     </row>
     <row r="503">
-      <c r="F503" s="17"/>
+      <c r="F503" s="18"/>
     </row>
     <row r="504">
-      <c r="F504" s="17"/>
+      <c r="F504" s="18"/>
     </row>
     <row r="505">
-      <c r="F505" s="17"/>
+      <c r="F505" s="18"/>
     </row>
     <row r="506">
-      <c r="F506" s="17"/>
+      <c r="F506" s="18"/>
     </row>
     <row r="507">
-      <c r="F507" s="17"/>
+      <c r="F507" s="18"/>
     </row>
     <row r="508">
-      <c r="F508" s="17"/>
+      <c r="F508" s="18"/>
     </row>
     <row r="509">
-      <c r="F509" s="17"/>
+      <c r="F509" s="18"/>
     </row>
     <row r="510">
-      <c r="F510" s="17"/>
+      <c r="F510" s="18"/>
     </row>
     <row r="511">
-      <c r="F511" s="17"/>
+      <c r="F511" s="18"/>
     </row>
     <row r="512">
-      <c r="F512" s="17"/>
+      <c r="F512" s="18"/>
     </row>
     <row r="513">
-      <c r="F513" s="17"/>
+      <c r="F513" s="18"/>
     </row>
     <row r="514">
-      <c r="F514" s="17"/>
+      <c r="F514" s="18"/>
     </row>
     <row r="515">
-      <c r="F515" s="17"/>
+      <c r="F515" s="18"/>
     </row>
     <row r="516">
-      <c r="F516" s="17"/>
+      <c r="F516" s="18"/>
     </row>
     <row r="517">
-      <c r="F517" s="17"/>
+      <c r="F517" s="18"/>
     </row>
     <row r="518">
-      <c r="F518" s="17"/>
+      <c r="F518" s="18"/>
     </row>
     <row r="519">
-      <c r="F519" s="17"/>
+      <c r="F519" s="18"/>
     </row>
     <row r="520">
-      <c r="F520" s="17"/>
+      <c r="F520" s="18"/>
     </row>
     <row r="521">
-      <c r="F521" s="17"/>
+      <c r="F521" s="18"/>
     </row>
     <row r="522">
-      <c r="F522" s="17"/>
+      <c r="F522" s="18"/>
     </row>
     <row r="523">
-      <c r="F523" s="17"/>
+      <c r="F523" s="18"/>
     </row>
     <row r="524">
-      <c r="F524" s="17"/>
+      <c r="F524" s="18"/>
     </row>
     <row r="525">
-      <c r="F525" s="17"/>
+      <c r="F525" s="18"/>
     </row>
     <row r="526">
-      <c r="F526" s="17"/>
+      <c r="F526" s="18"/>
     </row>
     <row r="527">
-      <c r="F527" s="17"/>
+      <c r="F527" s="18"/>
     </row>
     <row r="528">
-      <c r="F528" s="17"/>
+      <c r="F528" s="18"/>
     </row>
     <row r="529">
-      <c r="F529" s="17"/>
+      <c r="F529" s="18"/>
     </row>
     <row r="530">
-      <c r="F530" s="17"/>
+      <c r="F530" s="18"/>
     </row>
     <row r="531">
-      <c r="F531" s="17"/>
+      <c r="F531" s="18"/>
     </row>
     <row r="532">
-      <c r="F532" s="17"/>
+      <c r="F532" s="18"/>
     </row>
     <row r="533">
-      <c r="F533" s="17"/>
+      <c r="F533" s="18"/>
     </row>
     <row r="534">
-      <c r="F534" s="17"/>
+      <c r="F534" s="18"/>
     </row>
     <row r="535">
-      <c r="F535" s="17"/>
+      <c r="F535" s="18"/>
     </row>
     <row r="536">
-      <c r="F536" s="17"/>
+      <c r="F536" s="18"/>
     </row>
     <row r="537">
-      <c r="F537" s="17"/>
+      <c r="F537" s="18"/>
     </row>
     <row r="538">
-      <c r="F538" s="17"/>
+      <c r="F538" s="18"/>
     </row>
     <row r="539">
-      <c r="F539" s="17"/>
+      <c r="F539" s="18"/>
     </row>
     <row r="540">
-      <c r="F540" s="17"/>
+      <c r="F540" s="18"/>
     </row>
     <row r="541">
-      <c r="F541" s="17"/>
+      <c r="F541" s="18"/>
     </row>
     <row r="542">
-      <c r="F542" s="17"/>
+      <c r="F542" s="18"/>
     </row>
     <row r="543">
-      <c r="F543" s="17"/>
+      <c r="F543" s="18"/>
     </row>
     <row r="544">
-      <c r="F544" s="17"/>
+      <c r="F544" s="18"/>
     </row>
     <row r="545">
-      <c r="F545" s="17"/>
+      <c r="F545" s="18"/>
     </row>
     <row r="546">
-      <c r="F546" s="17"/>
+      <c r="F546" s="18"/>
     </row>
     <row r="547">
-      <c r="F547" s="17"/>
+      <c r="F547" s="18"/>
     </row>
     <row r="548">
-      <c r="F548" s="17"/>
+      <c r="F548" s="18"/>
     </row>
     <row r="549">
-      <c r="F549" s="17"/>
+      <c r="F549" s="18"/>
     </row>
     <row r="550">
-      <c r="F550" s="17"/>
+      <c r="F550" s="18"/>
     </row>
     <row r="551">
-      <c r="F551" s="17"/>
+      <c r="F551" s="18"/>
     </row>
     <row r="552">
-      <c r="F552" s="17"/>
+      <c r="F552" s="18"/>
     </row>
     <row r="553">
-      <c r="F553" s="17"/>
+      <c r="F553" s="18"/>
     </row>
     <row r="554">
-      <c r="F554" s="17"/>
+      <c r="F554" s="18"/>
     </row>
     <row r="555">
-      <c r="F555" s="17"/>
+      <c r="F555" s="18"/>
     </row>
     <row r="556">
-      <c r="F556" s="17"/>
+      <c r="F556" s="18"/>
     </row>
     <row r="557">
-      <c r="F557" s="17"/>
+      <c r="F557" s="18"/>
     </row>
     <row r="558">
-      <c r="F558" s="17"/>
+      <c r="F558" s="18"/>
     </row>
     <row r="559">
-      <c r="F559" s="17"/>
+      <c r="F559" s="18"/>
     </row>
     <row r="560">
-      <c r="F560" s="17"/>
+      <c r="F560" s="18"/>
     </row>
     <row r="561">
-      <c r="F561" s="17"/>
+      <c r="F561" s="18"/>
     </row>
     <row r="562">
-      <c r="F562" s="17"/>
+      <c r="F562" s="18"/>
     </row>
     <row r="563">
-      <c r="F563" s="17"/>
+      <c r="F563" s="18"/>
     </row>
     <row r="564">
-      <c r="F564" s="17"/>
+      <c r="F564" s="18"/>
     </row>
     <row r="565">
-      <c r="F565" s="17"/>
+      <c r="F565" s="18"/>
     </row>
     <row r="566">
-      <c r="F566" s="17"/>
+      <c r="F566" s="18"/>
     </row>
     <row r="567">
-      <c r="F567" s="17"/>
+      <c r="F567" s="18"/>
     </row>
     <row r="568">
-      <c r="F568" s="17"/>
+      <c r="F568" s="18"/>
     </row>
     <row r="569">
-      <c r="F569" s="17"/>
+      <c r="F569" s="18"/>
     </row>
     <row r="570">
-      <c r="F570" s="17"/>
+      <c r="F570" s="18"/>
     </row>
     <row r="571">
-      <c r="F571" s="17"/>
+      <c r="F571" s="18"/>
     </row>
     <row r="572">
-      <c r="F572" s="17"/>
+      <c r="F572" s="18"/>
     </row>
     <row r="573">
-      <c r="F573" s="17"/>
+      <c r="F573" s="18"/>
     </row>
     <row r="574">
-      <c r="F574" s="17"/>
+      <c r="F574" s="18"/>
     </row>
     <row r="575">
-      <c r="F575" s="17"/>
+      <c r="F575" s="18"/>
     </row>
     <row r="576">
-      <c r="F576" s="17"/>
+      <c r="F576" s="18"/>
     </row>
     <row r="577">
-      <c r="F577" s="17"/>
+      <c r="F577" s="18"/>
     </row>
     <row r="578">
-      <c r="F578" s="17"/>
+      <c r="F578" s="18"/>
     </row>
     <row r="579">
-      <c r="F579" s="17"/>
+      <c r="F579" s="18"/>
     </row>
     <row r="580">
-      <c r="F580" s="17"/>
+      <c r="F580" s="18"/>
     </row>
     <row r="581">
-      <c r="F581" s="17"/>
+      <c r="F581" s="18"/>
     </row>
     <row r="582">
-      <c r="F582" s="17"/>
+      <c r="F582" s="18"/>
     </row>
     <row r="583">
-      <c r="F583" s="17"/>
+      <c r="F583" s="18"/>
     </row>
     <row r="584">
-      <c r="F584" s="17"/>
+      <c r="F584" s="18"/>
     </row>
     <row r="585">
-      <c r="F585" s="17"/>
+      <c r="F585" s="18"/>
     </row>
     <row r="586">
-      <c r="F586" s="17"/>
+      <c r="F586" s="18"/>
     </row>
     <row r="587">
-      <c r="F587" s="17"/>
+      <c r="F587" s="18"/>
     </row>
     <row r="588">
-      <c r="F588" s="17"/>
+      <c r="F588" s="18"/>
     </row>
     <row r="589">
-      <c r="F589" s="17"/>
+      <c r="F589" s="18"/>
     </row>
     <row r="590">
-      <c r="F590" s="17"/>
+      <c r="F590" s="18"/>
     </row>
     <row r="591">
-      <c r="F591" s="17"/>
+      <c r="F591" s="18"/>
     </row>
     <row r="592">
-      <c r="F592" s="17"/>
+      <c r="F592" s="18"/>
     </row>
     <row r="593">
-      <c r="F593" s="17"/>
+      <c r="F593" s="18"/>
     </row>
     <row r="594">
-      <c r="F594" s="17"/>
+      <c r="F594" s="18"/>
     </row>
     <row r="595">
-      <c r="F595" s="17"/>
+      <c r="F595" s="18"/>
     </row>
     <row r="596">
-      <c r="F596" s="17"/>
+      <c r="F596" s="18"/>
     </row>
     <row r="597">
-      <c r="F597" s="17"/>
+      <c r="F597" s="18"/>
     </row>
     <row r="598">
-      <c r="F598" s="17"/>
+      <c r="F598" s="18"/>
     </row>
     <row r="599">
-      <c r="F599" s="17"/>
+      <c r="F599" s="18"/>
     </row>
     <row r="600">
-      <c r="F600" s="17"/>
+      <c r="F600" s="18"/>
     </row>
     <row r="601">
-      <c r="F601" s="17"/>
+      <c r="F601" s="18"/>
     </row>
     <row r="602">
-      <c r="F602" s="17"/>
+      <c r="F602" s="18"/>
     </row>
     <row r="603">
-      <c r="F603" s="17"/>
+      <c r="F603" s="18"/>
     </row>
     <row r="604">
-      <c r="F604" s="17"/>
+      <c r="F604" s="18"/>
     </row>
     <row r="605">
-      <c r="F605" s="17"/>
+      <c r="F605" s="18"/>
     </row>
     <row r="606">
-      <c r="F606" s="17"/>
+      <c r="F606" s="18"/>
     </row>
     <row r="607">
-      <c r="F607" s="17"/>
+      <c r="F607" s="18"/>
     </row>
     <row r="608">
-      <c r="F608" s="17"/>
+      <c r="F608" s="18"/>
     </row>
     <row r="609">
-      <c r="F609" s="17"/>
+      <c r="F609" s="18"/>
     </row>
     <row r="610">
-      <c r="F610" s="17"/>
+      <c r="F610" s="18"/>
     </row>
     <row r="611">
-      <c r="F611" s="17"/>
+      <c r="F611" s="18"/>
     </row>
     <row r="612">
-      <c r="F612" s="17"/>
+      <c r="F612" s="18"/>
     </row>
     <row r="613">
-      <c r="F613" s="17"/>
+      <c r="F613" s="18"/>
     </row>
     <row r="614">
-      <c r="F614" s="17"/>
+      <c r="F614" s="18"/>
     </row>
     <row r="615">
-      <c r="F615" s="17"/>
+      <c r="F615" s="18"/>
     </row>
     <row r="616">
-      <c r="F616" s="17"/>
+      <c r="F616" s="18"/>
     </row>
     <row r="617">
-      <c r="F617" s="17"/>
+      <c r="F617" s="18"/>
     </row>
     <row r="618">
-      <c r="F618" s="17"/>
+      <c r="F618" s="18"/>
     </row>
     <row r="619">
-      <c r="F619" s="17"/>
+      <c r="F619" s="18"/>
     </row>
     <row r="620">
-      <c r="F620" s="17"/>
+      <c r="F620" s="18"/>
     </row>
     <row r="621">
-      <c r="F621" s="17"/>
+      <c r="F621" s="18"/>
     </row>
     <row r="622">
-      <c r="F622" s="17"/>
+      <c r="F622" s="18"/>
     </row>
     <row r="623">
-      <c r="F623" s="17"/>
+      <c r="F623" s="18"/>
     </row>
     <row r="624">
-      <c r="F624" s="17"/>
+      <c r="F624" s="18"/>
     </row>
     <row r="625">
-      <c r="F625" s="17"/>
+      <c r="F625" s="18"/>
     </row>
     <row r="626">
-      <c r="F626" s="17"/>
+      <c r="F626" s="18"/>
     </row>
     <row r="627">
-      <c r="F627" s="17"/>
+      <c r="F627" s="18"/>
     </row>
     <row r="628">
-      <c r="F628" s="17"/>
+      <c r="F628" s="18"/>
     </row>
     <row r="629">
-      <c r="F629" s="17"/>
+      <c r="F629" s="18"/>
     </row>
     <row r="630">
-      <c r="F630" s="17"/>
+      <c r="F630" s="18"/>
     </row>
     <row r="631">
-      <c r="F631" s="17"/>
+      <c r="F631" s="18"/>
     </row>
     <row r="632">
-      <c r="F632" s="17"/>
+      <c r="F632" s="18"/>
     </row>
     <row r="633">
-      <c r="F633" s="17"/>
+      <c r="F633" s="18"/>
     </row>
     <row r="634">
-      <c r="F634" s="17"/>
+      <c r="F634" s="18"/>
     </row>
     <row r="635">
-      <c r="F635" s="17"/>
+      <c r="F635" s="18"/>
     </row>
     <row r="636">
-      <c r="F636" s="17"/>
+      <c r="F636" s="18"/>
     </row>
     <row r="637">
-      <c r="F637" s="17"/>
+      <c r="F637" s="18"/>
     </row>
     <row r="638">
-      <c r="F638" s="17"/>
+      <c r="F638" s="18"/>
     </row>
     <row r="639">
-      <c r="F639" s="17"/>
+      <c r="F639" s="18"/>
     </row>
     <row r="640">
-      <c r="F640" s="17"/>
+      <c r="F640" s="18"/>
     </row>
     <row r="641">
-      <c r="F641" s="17"/>
+      <c r="F641" s="18"/>
     </row>
     <row r="642">
-      <c r="F642" s="17"/>
+      <c r="F642" s="18"/>
     </row>
     <row r="643">
-      <c r="F643" s="17"/>
+      <c r="F643" s="18"/>
     </row>
     <row r="644">
-      <c r="F644" s="17"/>
+      <c r="F644" s="18"/>
     </row>
     <row r="645">
-      <c r="F645" s="17"/>
+      <c r="F645" s="18"/>
     </row>
     <row r="646">
-      <c r="F646" s="17"/>
+      <c r="F646" s="18"/>
     </row>
     <row r="647">
-      <c r="F647" s="17"/>
+      <c r="F647" s="18"/>
     </row>
     <row r="648">
-      <c r="F648" s="17"/>
+      <c r="F648" s="18"/>
     </row>
     <row r="649">
-      <c r="F649" s="17"/>
+      <c r="F649" s="18"/>
     </row>
     <row r="650">
-      <c r="F650" s="17"/>
+      <c r="F650" s="18"/>
     </row>
     <row r="651">
-      <c r="F651" s="17"/>
+      <c r="F651" s="18"/>
     </row>
     <row r="652">
-      <c r="F652" s="17"/>
+      <c r="F652" s="18"/>
     </row>
     <row r="653">
-      <c r="F653" s="17"/>
+      <c r="F653" s="18"/>
     </row>
     <row r="654">
-      <c r="F654" s="17"/>
+      <c r="F654" s="18"/>
     </row>
     <row r="655">
-      <c r="F655" s="17"/>
+      <c r="F655" s="18"/>
     </row>
     <row r="656">
-      <c r="F656" s="17"/>
+      <c r="F656" s="18"/>
     </row>
     <row r="657">
-      <c r="F657" s="17"/>
+      <c r="F657" s="18"/>
     </row>
     <row r="658">
-      <c r="F658" s="17"/>
+      <c r="F658" s="18"/>
     </row>
     <row r="659">
-      <c r="F659" s="17"/>
+      <c r="F659" s="18"/>
     </row>
     <row r="660">
-      <c r="F660" s="17"/>
+      <c r="F660" s="18"/>
     </row>
     <row r="661">
-      <c r="F661" s="17"/>
+      <c r="F661" s="18"/>
     </row>
     <row r="662">
-      <c r="F662" s="17"/>
+      <c r="F662" s="18"/>
     </row>
     <row r="663">
-      <c r="F663" s="17"/>
+      <c r="F663" s="18"/>
     </row>
     <row r="664">
-      <c r="F664" s="17"/>
+      <c r="F664" s="18"/>
     </row>
     <row r="665">
-      <c r="F665" s="17"/>
+      <c r="F665" s="18"/>
     </row>
     <row r="666">
-      <c r="F666" s="17"/>
+      <c r="F666" s="18"/>
     </row>
     <row r="667">
-      <c r="F667" s="17"/>
+      <c r="F667" s="18"/>
     </row>
     <row r="668">
-      <c r="F668" s="17"/>
+      <c r="F668" s="18"/>
     </row>
     <row r="669">
-      <c r="F669" s="17"/>
+      <c r="F669" s="18"/>
     </row>
     <row r="670">
-      <c r="F670" s="17"/>
+      <c r="F670" s="18"/>
     </row>
     <row r="671">
-      <c r="F671" s="17"/>
+      <c r="F671" s="18"/>
     </row>
     <row r="672">
-      <c r="F672" s="17"/>
+      <c r="F672" s="18"/>
     </row>
     <row r="673">
-      <c r="F673" s="17"/>
+      <c r="F673" s="18"/>
     </row>
     <row r="674">
-      <c r="F674" s="17"/>
+      <c r="F674" s="18"/>
     </row>
     <row r="675">
-      <c r="F675" s="17"/>
+      <c r="F675" s="18"/>
     </row>
     <row r="676">
-      <c r="F676" s="17"/>
+      <c r="F676" s="18"/>
     </row>
     <row r="677">
-      <c r="F677" s="17"/>
+      <c r="F677" s="18"/>
     </row>
     <row r="678">
-      <c r="F678" s="17"/>
+      <c r="F678" s="18"/>
     </row>
     <row r="679">
-      <c r="F679" s="17"/>
+      <c r="F679" s="18"/>
     </row>
     <row r="680">
-      <c r="F680" s="17"/>
+      <c r="F680" s="18"/>
     </row>
     <row r="681">
-      <c r="F681" s="17"/>
+      <c r="F681" s="18"/>
     </row>
     <row r="682">
-      <c r="F682" s="17"/>
+      <c r="F682" s="18"/>
     </row>
     <row r="683">
-      <c r="F683" s="17"/>
+      <c r="F683" s="18"/>
     </row>
     <row r="684">
-      <c r="F684" s="17"/>
+      <c r="F684" s="18"/>
     </row>
     <row r="685">
-      <c r="F685" s="17"/>
+      <c r="F685" s="18"/>
     </row>
     <row r="686">
-      <c r="F686" s="17"/>
+      <c r="F686" s="18"/>
     </row>
     <row r="687">
-      <c r="F687" s="17"/>
+      <c r="F687" s="18"/>
     </row>
     <row r="688">
-      <c r="F688" s="17"/>
+      <c r="F688" s="18"/>
     </row>
     <row r="689">
-      <c r="F689" s="17"/>
+      <c r="F689" s="18"/>
     </row>
     <row r="690">
-      <c r="F690" s="17"/>
+      <c r="F690" s="18"/>
     </row>
     <row r="691">
-      <c r="F691" s="17"/>
+      <c r="F691" s="18"/>
     </row>
     <row r="692">
-      <c r="F692" s="17"/>
+      <c r="F692" s="18"/>
     </row>
     <row r="693">
-      <c r="F693" s="17"/>
+      <c r="F693" s="18"/>
     </row>
     <row r="694">
-      <c r="F694" s="17"/>
+      <c r="F694" s="18"/>
     </row>
     <row r="695">
-      <c r="F695" s="17"/>
+      <c r="F695" s="18"/>
     </row>
     <row r="696">
-      <c r="F696" s="17"/>
+      <c r="F696" s="18"/>
     </row>
     <row r="697">
-      <c r="F697" s="17"/>
+      <c r="F697" s="18"/>
     </row>
     <row r="698">
-      <c r="F698" s="17"/>
+      <c r="F698" s="18"/>
     </row>
     <row r="699">
-      <c r="F699" s="17"/>
+      <c r="F699" s="18"/>
     </row>
     <row r="700">
-      <c r="F700" s="17"/>
+      <c r="F700" s="18"/>
     </row>
     <row r="701">
-      <c r="F701" s="17"/>
+      <c r="F701" s="18"/>
     </row>
     <row r="702">
-      <c r="F702" s="17"/>
+      <c r="F702" s="18"/>
     </row>
     <row r="703">
-      <c r="F703" s="17"/>
+      <c r="F703" s="18"/>
     </row>
     <row r="704">
-      <c r="F704" s="17"/>
+      <c r="F704" s="18"/>
     </row>
     <row r="705">
-      <c r="F705" s="17"/>
+      <c r="F705" s="18"/>
     </row>
     <row r="706">
-      <c r="F706" s="17"/>
+      <c r="F706" s="18"/>
     </row>
     <row r="707">
-      <c r="F707" s="17"/>
+      <c r="F707" s="18"/>
     </row>
     <row r="708">
-      <c r="F708" s="17"/>
+      <c r="F708" s="18"/>
     </row>
     <row r="709">
-      <c r="F709" s="17"/>
+      <c r="F709" s="18"/>
     </row>
     <row r="710">
-      <c r="F710" s="17"/>
+      <c r="F710" s="18"/>
     </row>
     <row r="711">
-      <c r="F711" s="17"/>
+      <c r="F711" s="18"/>
     </row>
     <row r="712">
-      <c r="F712" s="17"/>
+      <c r="F712" s="18"/>
     </row>
     <row r="713">
-      <c r="F713" s="17"/>
+      <c r="F713" s="18"/>
     </row>
     <row r="714">
-      <c r="F714" s="17"/>
+      <c r="F714" s="18"/>
     </row>
     <row r="715">
-      <c r="F715" s="17"/>
+      <c r="F715" s="18"/>
     </row>
     <row r="716">
-      <c r="F716" s="17"/>
+      <c r="F716" s="18"/>
     </row>
     <row r="717">
-      <c r="F717" s="17"/>
+      <c r="F717" s="18"/>
     </row>
     <row r="718">
-      <c r="F718" s="17"/>
+      <c r="F718" s="18"/>
     </row>
     <row r="719">
-      <c r="F719" s="17"/>
+      <c r="F719" s="18"/>
     </row>
     <row r="720">
-      <c r="F720" s="17"/>
+      <c r="F720" s="18"/>
     </row>
     <row r="721">
-      <c r="F721" s="17"/>
+      <c r="F721" s="18"/>
     </row>
     <row r="722">
-      <c r="F722" s="17"/>
+      <c r="F722" s="18"/>
     </row>
     <row r="723">
-      <c r="F723" s="17"/>
+      <c r="F723" s="18"/>
     </row>
     <row r="724">
-      <c r="F724" s="17"/>
+      <c r="F724" s="18"/>
     </row>
     <row r="725">
-      <c r="F725" s="17"/>
+      <c r="F725" s="18"/>
     </row>
     <row r="726">
-      <c r="F726" s="17"/>
+      <c r="F726" s="18"/>
     </row>
     <row r="727">
-      <c r="F727" s="17"/>
+      <c r="F727" s="18"/>
     </row>
     <row r="728">
-      <c r="F728" s="17"/>
+      <c r="F728" s="18"/>
     </row>
     <row r="729">
-      <c r="F729" s="17"/>
+      <c r="F729" s="18"/>
     </row>
     <row r="730">
-      <c r="F730" s="17"/>
+      <c r="F730" s="18"/>
     </row>
     <row r="731">
-      <c r="F731" s="17"/>
+      <c r="F731" s="18"/>
     </row>
     <row r="732">
-      <c r="F732" s="17"/>
+      <c r="F732" s="18"/>
     </row>
     <row r="733">
-      <c r="F733" s="17"/>
+      <c r="F733" s="18"/>
     </row>
     <row r="734">
-      <c r="F734" s="17"/>
+      <c r="F734" s="18"/>
     </row>
     <row r="735">
-      <c r="F735" s="17"/>
+      <c r="F735" s="18"/>
     </row>
     <row r="736">
-      <c r="F736" s="17"/>
+      <c r="F736" s="18"/>
     </row>
     <row r="737">
-      <c r="F737" s="17"/>
+      <c r="F737" s="18"/>
     </row>
     <row r="738">
-      <c r="F738" s="17"/>
+      <c r="F738" s="18"/>
     </row>
     <row r="739">
-      <c r="F739" s="17"/>
+      <c r="F739" s="18"/>
     </row>
     <row r="740">
-      <c r="F740" s="17"/>
+      <c r="F740" s="18"/>
     </row>
     <row r="741">
-      <c r="F741" s="17"/>
+      <c r="F741" s="18"/>
     </row>
     <row r="742">
-      <c r="F742" s="17"/>
+      <c r="F742" s="18"/>
     </row>
     <row r="743">
-      <c r="F743" s="17"/>
+      <c r="F743" s="18"/>
     </row>
     <row r="744">
-      <c r="F744" s="17"/>
+      <c r="F744" s="18"/>
     </row>
     <row r="745">
-      <c r="F745" s="17"/>
+      <c r="F745" s="18"/>
     </row>
     <row r="746">
-      <c r="F746" s="17"/>
+      <c r="F746" s="18"/>
     </row>
     <row r="747">
-      <c r="F747" s="17"/>
+      <c r="F747" s="18"/>
     </row>
     <row r="748">
-      <c r="F748" s="17"/>
+      <c r="F748" s="18"/>
     </row>
     <row r="749">
-      <c r="F749" s="17"/>
+      <c r="F749" s="18"/>
     </row>
     <row r="750">
-      <c r="F750" s="17"/>
+      <c r="F750" s="18"/>
     </row>
     <row r="751">
-      <c r="F751" s="17"/>
+      <c r="F751" s="18"/>
     </row>
     <row r="752">
-      <c r="F752" s="17"/>
+      <c r="F752" s="18"/>
     </row>
     <row r="753">
-      <c r="F753" s="17"/>
+      <c r="F753" s="18"/>
     </row>
     <row r="754">
-      <c r="F754" s="17"/>
+      <c r="F754" s="18"/>
     </row>
     <row r="755">
-      <c r="F755" s="17"/>
+      <c r="F755" s="18"/>
     </row>
     <row r="756">
-      <c r="F756" s="17"/>
+      <c r="F756" s="18"/>
     </row>
     <row r="757">
-      <c r="F757" s="17"/>
+      <c r="F757" s="18"/>
     </row>
     <row r="758">
-      <c r="F758" s="17"/>
+      <c r="F758" s="18"/>
     </row>
     <row r="759">
-      <c r="F759" s="17"/>
+      <c r="F759" s="18"/>
     </row>
     <row r="760">
-      <c r="F760" s="17"/>
+      <c r="F760" s="18"/>
     </row>
     <row r="761">
-      <c r="F761" s="17"/>
+      <c r="F761" s="18"/>
     </row>
     <row r="762">
-      <c r="F762" s="17"/>
+      <c r="F762" s="18"/>
     </row>
     <row r="763">
-      <c r="F763" s="17"/>
+      <c r="F763" s="18"/>
     </row>
     <row r="764">
-      <c r="F764" s="17"/>
+      <c r="F764" s="18"/>
     </row>
     <row r="765">
-      <c r="F765" s="17"/>
+      <c r="F765" s="18"/>
     </row>
     <row r="766">
-      <c r="F766" s="17"/>
+      <c r="F766" s="18"/>
     </row>
     <row r="767">
-      <c r="F767" s="17"/>
+      <c r="F767" s="18"/>
     </row>
     <row r="768">
-      <c r="F768" s="17"/>
+      <c r="F768" s="18"/>
     </row>
     <row r="769">
-      <c r="F769" s="17"/>
+      <c r="F769" s="18"/>
     </row>
     <row r="770">
-      <c r="F770" s="17"/>
+      <c r="F770" s="18"/>
     </row>
     <row r="771">
-      <c r="F771" s="17"/>
+      <c r="F771" s="18"/>
     </row>
     <row r="772">
-      <c r="F772" s="17"/>
+      <c r="F772" s="18"/>
     </row>
     <row r="773">
-      <c r="F773" s="17"/>
+      <c r="F773" s="18"/>
     </row>
     <row r="774">
-      <c r="F774" s="17"/>
+      <c r="F774" s="18"/>
     </row>
     <row r="775">
-      <c r="F775" s="17"/>
+      <c r="F775" s="18"/>
     </row>
     <row r="776">
-      <c r="F776" s="17"/>
+      <c r="F776" s="18"/>
     </row>
     <row r="777">
-      <c r="F777" s="17"/>
+      <c r="F777" s="18"/>
     </row>
     <row r="778">
-      <c r="F778" s="17"/>
+      <c r="F778" s="18"/>
     </row>
     <row r="779">
-      <c r="F779" s="17"/>
+      <c r="F779" s="18"/>
     </row>
     <row r="780">
-      <c r="F780" s="17"/>
+      <c r="F780" s="18"/>
     </row>
     <row r="781">
-      <c r="F781" s="17"/>
+      <c r="F781" s="18"/>
     </row>
     <row r="782">
-      <c r="F782" s="17"/>
+      <c r="F782" s="18"/>
     </row>
     <row r="783">
-      <c r="F783" s="17"/>
+      <c r="F783" s="18"/>
     </row>
     <row r="784">
-      <c r="F784" s="17"/>
+      <c r="F784" s="18"/>
     </row>
     <row r="785">
-      <c r="F785" s="17"/>
+      <c r="F785" s="18"/>
     </row>
     <row r="786">
-      <c r="F786" s="17"/>
+      <c r="F786" s="18"/>
     </row>
     <row r="787">
-      <c r="F787" s="17"/>
+      <c r="F787" s="18"/>
     </row>
     <row r="788">
-      <c r="F788" s="17"/>
+      <c r="F788" s="18"/>
     </row>
     <row r="789">
-      <c r="F789" s="17"/>
+      <c r="F789" s="18"/>
     </row>
     <row r="790">
-      <c r="F790" s="17"/>
+      <c r="F790" s="18"/>
     </row>
     <row r="791">
-      <c r="F791" s="17"/>
+      <c r="F791" s="18"/>
     </row>
     <row r="792">
-      <c r="F792" s="17"/>
+      <c r="F792" s="18"/>
     </row>
     <row r="793">
-      <c r="F793" s="17"/>
+      <c r="F793" s="18"/>
     </row>
     <row r="794">
-      <c r="F794" s="17"/>
+      <c r="F794" s="18"/>
     </row>
     <row r="795">
-      <c r="F795" s="17"/>
+      <c r="F795" s="18"/>
     </row>
     <row r="796">
-      <c r="F796" s="17"/>
+      <c r="F796" s="18"/>
     </row>
     <row r="797">
-      <c r="F797" s="17"/>
+      <c r="F797" s="18"/>
     </row>
     <row r="798">
-      <c r="F798" s="17"/>
+      <c r="F798" s="18"/>
     </row>
     <row r="799">
-      <c r="F799" s="17"/>
+      <c r="F799" s="18"/>
     </row>
     <row r="800">
-      <c r="F800" s="17"/>
+      <c r="F800" s="18"/>
     </row>
     <row r="801">
-      <c r="F801" s="17"/>
+      <c r="F801" s="18"/>
     </row>
     <row r="802">
-      <c r="F802" s="17"/>
+      <c r="F802" s="18"/>
     </row>
     <row r="803">
-      <c r="F803" s="17"/>
+      <c r="F803" s="18"/>
     </row>
     <row r="804">
-      <c r="F804" s="17"/>
+      <c r="F804" s="18"/>
     </row>
     <row r="805">
-      <c r="F805" s="17"/>
+      <c r="F805" s="18"/>
     </row>
     <row r="806">
-      <c r="F806" s="17"/>
+      <c r="F806" s="18"/>
     </row>
     <row r="807">
-      <c r="F807" s="17"/>
+      <c r="F807" s="18"/>
     </row>
     <row r="808">
-      <c r="F808" s="17"/>
+      <c r="F808" s="18"/>
     </row>
     <row r="809">
-      <c r="F809" s="17"/>
+      <c r="F809" s="18"/>
     </row>
     <row r="810">
-      <c r="F810" s="17"/>
+      <c r="F810" s="18"/>
     </row>
     <row r="811">
-      <c r="F811" s="17"/>
+      <c r="F811" s="18"/>
     </row>
     <row r="812">
-      <c r="F812" s="17"/>
+      <c r="F812" s="18"/>
     </row>
     <row r="813">
-      <c r="F813" s="17"/>
+      <c r="F813" s="18"/>
     </row>
     <row r="814">
-      <c r="F814" s="17"/>
+      <c r="F814" s="18"/>
     </row>
     <row r="815">
-      <c r="F815" s="17"/>
+      <c r="F815" s="18"/>
     </row>
     <row r="816">
-      <c r="F816" s="17"/>
+      <c r="F816" s="18"/>
     </row>
     <row r="817">
-      <c r="F817" s="17"/>
+      <c r="F817" s="18"/>
     </row>
     <row r="818">
-      <c r="F818" s="17"/>
+      <c r="F818" s="18"/>
     </row>
     <row r="819">
-      <c r="F819" s="17"/>
+      <c r="F819" s="18"/>
     </row>
     <row r="820">
-      <c r="F820" s="17"/>
+      <c r="F820" s="18"/>
     </row>
     <row r="821">
-      <c r="F821" s="17"/>
+      <c r="F821" s="18"/>
     </row>
     <row r="822">
-      <c r="F822" s="17"/>
+      <c r="F822" s="18"/>
     </row>
     <row r="823">
-      <c r="F823" s="17"/>
+      <c r="F823" s="18"/>
     </row>
     <row r="824">
-      <c r="F824" s="17"/>
+      <c r="F824" s="18"/>
     </row>
     <row r="825">
-      <c r="F825" s="17"/>
+      <c r="F825" s="18"/>
     </row>
     <row r="826">
-      <c r="F826" s="17"/>
+      <c r="F826" s="18"/>
     </row>
     <row r="827">
-      <c r="F827" s="17"/>
+      <c r="F827" s="18"/>
     </row>
     <row r="828">
-      <c r="F828" s="17"/>
+      <c r="F828" s="18"/>
     </row>
     <row r="829">
-      <c r="F829" s="17"/>
+      <c r="F829" s="18"/>
     </row>
     <row r="830">
-      <c r="F830" s="17"/>
+      <c r="F830" s="18"/>
     </row>
     <row r="831">
-      <c r="F831" s="17"/>
+      <c r="F831" s="18"/>
     </row>
     <row r="832">
-      <c r="F832" s="17"/>
+      <c r="F832" s="18"/>
     </row>
     <row r="833">
-      <c r="F833" s="17"/>
+      <c r="F833" s="18"/>
     </row>
     <row r="834">
-      <c r="F834" s="17"/>
+      <c r="F834" s="18"/>
     </row>
     <row r="835">
-      <c r="F835" s="17"/>
+      <c r="F835" s="18"/>
     </row>
     <row r="836">
-      <c r="F836" s="17"/>
+      <c r="F836" s="18"/>
     </row>
     <row r="837">
-      <c r="F837" s="17"/>
+      <c r="F837" s="18"/>
     </row>
     <row r="838">
-      <c r="F838" s="17"/>
+      <c r="F838" s="18"/>
     </row>
     <row r="839">
-      <c r="F839" s="17"/>
+      <c r="F839" s="18"/>
     </row>
     <row r="840">
-      <c r="F840" s="17"/>
+      <c r="F840" s="18"/>
     </row>
     <row r="841">
-      <c r="F841" s="17"/>
+      <c r="F841" s="18"/>
     </row>
     <row r="842">
-      <c r="F842" s="17"/>
+      <c r="F842" s="18"/>
     </row>
     <row r="843">
-      <c r="F843" s="17"/>
+      <c r="F843" s="18"/>
     </row>
     <row r="844">
-      <c r="F844" s="17"/>
+      <c r="F844" s="18"/>
     </row>
     <row r="845">
-      <c r="F845" s="17"/>
+      <c r="F845" s="18"/>
     </row>
     <row r="846">
-      <c r="F846" s="17"/>
+      <c r="F846" s="18"/>
     </row>
     <row r="847">
-      <c r="F847" s="17"/>
+      <c r="F847" s="18"/>
     </row>
     <row r="848">
-      <c r="F848" s="17"/>
+      <c r="F848" s="18"/>
     </row>
     <row r="849">
-      <c r="F849" s="17"/>
+      <c r="F849" s="18"/>
     </row>
     <row r="850">
-      <c r="F850" s="17"/>
+      <c r="F850" s="18"/>
     </row>
     <row r="851">
-      <c r="F851" s="17"/>
+      <c r="F851" s="18"/>
     </row>
     <row r="852">
-      <c r="F852" s="17"/>
+      <c r="F852" s="18"/>
     </row>
     <row r="853">
-      <c r="F853" s="17"/>
+      <c r="F853" s="18"/>
     </row>
     <row r="854">
-      <c r="F854" s="17"/>
+      <c r="F854" s="18"/>
     </row>
     <row r="855">
-      <c r="F855" s="17"/>
+      <c r="F855" s="18"/>
     </row>
     <row r="856">
-      <c r="F856" s="17"/>
+      <c r="F856" s="18"/>
     </row>
     <row r="857">
-      <c r="F857" s="17"/>
+      <c r="F857" s="18"/>
     </row>
     <row r="858">
-      <c r="F858" s="17"/>
+      <c r="F858" s="18"/>
     </row>
     <row r="859">
-      <c r="F859" s="17"/>
+      <c r="F859" s="18"/>
     </row>
     <row r="860">
-      <c r="F860" s="17"/>
+      <c r="F860" s="18"/>
     </row>
     <row r="861">
-      <c r="F861" s="17"/>
+      <c r="F861" s="18"/>
     </row>
     <row r="862">
-      <c r="F862" s="17"/>
+      <c r="F862" s="18"/>
     </row>
     <row r="863">
-      <c r="F863" s="17"/>
+      <c r="F863" s="18"/>
     </row>
     <row r="864">
-      <c r="F864" s="17"/>
+      <c r="F864" s="18"/>
     </row>
     <row r="865">
-      <c r="F865" s="17"/>
+      <c r="F865" s="18"/>
     </row>
     <row r="866">
-      <c r="F866" s="17"/>
+      <c r="F866" s="18"/>
     </row>
     <row r="867">
-      <c r="F867" s="17"/>
+      <c r="F867" s="18"/>
     </row>
     <row r="868">
-      <c r="F868" s="17"/>
+      <c r="F868" s="18"/>
     </row>
     <row r="869">
-      <c r="F869" s="17"/>
+      <c r="F869" s="18"/>
     </row>
     <row r="870">
-      <c r="F870" s="17"/>
+      <c r="F870" s="18"/>
     </row>
     <row r="871">
-      <c r="F871" s="17"/>
+      <c r="F871" s="18"/>
     </row>
     <row r="872">
-      <c r="F872" s="17"/>
+      <c r="F872" s="18"/>
     </row>
     <row r="873">
-      <c r="F873" s="17"/>
+      <c r="F873" s="18"/>
     </row>
     <row r="874">
-      <c r="F874" s="17"/>
+      <c r="F874" s="18"/>
     </row>
     <row r="875">
-      <c r="F875" s="17"/>
+      <c r="F875" s="18"/>
     </row>
     <row r="876">
-      <c r="F876" s="17"/>
+      <c r="F876" s="18"/>
     </row>
     <row r="877">
-      <c r="F877" s="17"/>
+      <c r="F877" s="18"/>
     </row>
     <row r="878">
-      <c r="F878" s="17"/>
+      <c r="F878" s="18"/>
     </row>
     <row r="879">
-      <c r="F879" s="17"/>
+      <c r="F879" s="18"/>
     </row>
     <row r="880">
-      <c r="F880" s="17"/>
+      <c r="F880" s="18"/>
     </row>
     <row r="881">
-      <c r="F881" s="17"/>
+      <c r="F881" s="18"/>
     </row>
     <row r="882">
-      <c r="F882" s="17"/>
+      <c r="F882" s="18"/>
     </row>
     <row r="883">
-      <c r="F883" s="17"/>
+      <c r="F883" s="18"/>
     </row>
     <row r="884">
-      <c r="F884" s="17"/>
+      <c r="F884" s="18"/>
     </row>
     <row r="885">
-      <c r="F885" s="17"/>
+      <c r="F885" s="18"/>
     </row>
     <row r="886">
-      <c r="F886" s="17"/>
+      <c r="F886" s="18"/>
     </row>
     <row r="887">
-      <c r="F887" s="17"/>
+      <c r="F887" s="18"/>
     </row>
     <row r="888">
-      <c r="F888" s="17"/>
+      <c r="F888" s="18"/>
     </row>
     <row r="889">
-      <c r="F889" s="17"/>
+      <c r="F889" s="18"/>
     </row>
     <row r="890">
-      <c r="F890" s="17"/>
+      <c r="F890" s="18"/>
     </row>
     <row r="891">
-      <c r="F891" s="17"/>
+      <c r="F891" s="18"/>
     </row>
     <row r="892">
-      <c r="F892" s="17"/>
+      <c r="F892" s="18"/>
     </row>
     <row r="893">
-      <c r="F893" s="17"/>
+      <c r="F893" s="18"/>
     </row>
     <row r="894">
-      <c r="F894" s="17"/>
+      <c r="F894" s="18"/>
     </row>
     <row r="895">
-      <c r="F895" s="17"/>
+      <c r="F895" s="18"/>
     </row>
     <row r="896">
-      <c r="F896" s="17"/>
+      <c r="F896" s="18"/>
     </row>
     <row r="897">
-      <c r="F897" s="17"/>
+      <c r="F897" s="18"/>
     </row>
     <row r="898">
-      <c r="F898" s="17"/>
+      <c r="F898" s="18"/>
     </row>
     <row r="899">
-      <c r="F899" s="17"/>
+      <c r="F899" s="18"/>
     </row>
     <row r="900">
-      <c r="F900" s="17"/>
+      <c r="F900" s="18"/>
     </row>
     <row r="901">
-      <c r="F901" s="17"/>
+      <c r="F901" s="18"/>
     </row>
     <row r="902">
-      <c r="F902" s="17"/>
+      <c r="F902" s="18"/>
     </row>
     <row r="903">
-      <c r="F903" s="17"/>
+      <c r="F903" s="18"/>
     </row>
     <row r="904">
-      <c r="F904" s="17"/>
+      <c r="F904" s="18"/>
     </row>
     <row r="905">
-      <c r="F905" s="17"/>
+      <c r="F905" s="18"/>
     </row>
     <row r="906">
-      <c r="F906" s="17"/>
+      <c r="F906" s="18"/>
     </row>
     <row r="907">
-      <c r="F907" s="17"/>
+      <c r="F907" s="18"/>
     </row>
     <row r="908">
-      <c r="F908" s="17"/>
+      <c r="F908" s="18"/>
     </row>
     <row r="909">
-      <c r="F909" s="17"/>
+      <c r="F909" s="18"/>
     </row>
     <row r="910">
-      <c r="F910" s="17"/>
+      <c r="F910" s="18"/>
     </row>
     <row r="911">
-      <c r="F911" s="17"/>
+      <c r="F911" s="18"/>
     </row>
     <row r="912">
-      <c r="F912" s="17"/>
+      <c r="F912" s="18"/>
     </row>
     <row r="913">
-      <c r="F913" s="17"/>
+      <c r="F913" s="18"/>
     </row>
     <row r="914">
-      <c r="F914" s="17"/>
+      <c r="F914" s="18"/>
     </row>
     <row r="915">
-      <c r="F915" s="17"/>
+      <c r="F915" s="18"/>
     </row>
     <row r="916">
-      <c r="F916" s="17"/>
+      <c r="F916" s="18"/>
     </row>
     <row r="917">
-      <c r="F917" s="17"/>
+      <c r="F917" s="18"/>
     </row>
     <row r="918">
-      <c r="F918" s="17"/>
+      <c r="F918" s="18"/>
     </row>
     <row r="919">
-      <c r="F919" s="17"/>
+      <c r="F919" s="18"/>
     </row>
     <row r="920">
-      <c r="F920" s="17"/>
+      <c r="F920" s="18"/>
     </row>
     <row r="921">
-      <c r="F921" s="17"/>
+      <c r="F921" s="18"/>
     </row>
     <row r="922">
-      <c r="F922" s="17"/>
+      <c r="F922" s="18"/>
     </row>
     <row r="923">
-      <c r="F923" s="17"/>
+      <c r="F923" s="18"/>
     </row>
     <row r="924">
-      <c r="F924" s="17"/>
+      <c r="F924" s="18"/>
     </row>
     <row r="925">
-      <c r="F925" s="17"/>
+      <c r="F925" s="18"/>
     </row>
     <row r="926">
-      <c r="F926" s="17"/>
+      <c r="F926" s="18"/>
     </row>
     <row r="927">
-      <c r="F927" s="17"/>
+      <c r="F927" s="18"/>
     </row>
     <row r="928">
-      <c r="F928" s="17"/>
+      <c r="F928" s="18"/>
     </row>
     <row r="929">
-      <c r="F929" s="17"/>
+      <c r="F929" s="18"/>
     </row>
     <row r="930">
-      <c r="F930" s="17"/>
+      <c r="F930" s="18"/>
     </row>
     <row r="931">
-      <c r="F931" s="17"/>
+      <c r="F931" s="18"/>
     </row>
     <row r="932">
-      <c r="F932" s="17"/>
+      <c r="F932" s="18"/>
     </row>
     <row r="933">
-      <c r="F933" s="17"/>
+      <c r="F933" s="18"/>
     </row>
     <row r="934">
-      <c r="F934" s="17"/>
+      <c r="F934" s="18"/>
     </row>
     <row r="935">
-      <c r="F935" s="17"/>
+      <c r="F935" s="18"/>
     </row>
     <row r="936">
-      <c r="F936" s="17"/>
+      <c r="F936" s="18"/>
     </row>
     <row r="937">
-      <c r="F937" s="17"/>
+      <c r="F937" s="18"/>
     </row>
     <row r="938">
-      <c r="F938" s="17"/>
+      <c r="F938" s="18"/>
     </row>
     <row r="939">
-      <c r="F939" s="17"/>
+      <c r="F939" s="18"/>
     </row>
     <row r="940">
-      <c r="F940" s="17"/>
+      <c r="F940" s="18"/>
     </row>
     <row r="941">
-      <c r="F941" s="17"/>
+      <c r="F941" s="18"/>
     </row>
     <row r="942">
-      <c r="F942" s="17"/>
+      <c r="F942" s="18"/>
     </row>
     <row r="943">
-      <c r="F943" s="17"/>
+      <c r="F943" s="18"/>
     </row>
     <row r="944">
-      <c r="F944" s="17"/>
+      <c r="F944" s="18"/>
     </row>
     <row r="945">
-      <c r="F945" s="17"/>
+      <c r="F945" s="18"/>
     </row>
     <row r="946">
-      <c r="F946" s="17"/>
+      <c r="F946" s="18"/>
     </row>
     <row r="947">
-      <c r="F947" s="17"/>
+      <c r="F947" s="18"/>
     </row>
     <row r="948">
-      <c r="F948" s="17"/>
+      <c r="F948" s="18"/>
     </row>
     <row r="949">
-      <c r="F949" s="17"/>
+      <c r="F949" s="18"/>
     </row>
     <row r="950">
-      <c r="F950" s="17"/>
+      <c r="F950" s="18"/>
     </row>
     <row r="951">
-      <c r="F951" s="17"/>
+      <c r="F951" s="18"/>
     </row>
     <row r="952">
-      <c r="F952" s="17"/>
+      <c r="F952" s="18"/>
     </row>
     <row r="953">
-      <c r="F953" s="17"/>
+      <c r="F953" s="18"/>
     </row>
     <row r="954">
-      <c r="F954" s="17"/>
+      <c r="F954" s="18"/>
     </row>
     <row r="955">
-      <c r="F955" s="17"/>
+      <c r="F955" s="18"/>
     </row>
     <row r="956">
-      <c r="F956" s="17"/>
+      <c r="F956" s="18"/>
     </row>
     <row r="957">
-      <c r="F957" s="17"/>
+      <c r="F957" s="18"/>
     </row>
     <row r="958">
-      <c r="F958" s="17"/>
+      <c r="F958" s="18"/>
     </row>
     <row r="959">
-      <c r="F959" s="17"/>
+      <c r="F959" s="18"/>
     </row>
     <row r="960">
-      <c r="F960" s="17"/>
+      <c r="F960" s="18"/>
     </row>
     <row r="961">
-      <c r="F961" s="17"/>
+      <c r="F961" s="18"/>
     </row>
     <row r="962">
-      <c r="F962" s="17"/>
+      <c r="F962" s="18"/>
     </row>
     <row r="963">
-      <c r="F963" s="17"/>
+      <c r="F963" s="18"/>
     </row>
     <row r="964">
-      <c r="F964" s="17"/>
+      <c r="F964" s="18"/>
     </row>
     <row r="965">
-      <c r="F965" s="17"/>
+      <c r="F965" s="18"/>
     </row>
     <row r="966">
-      <c r="F966" s="17"/>
+      <c r="F966" s="18"/>
     </row>
     <row r="967">
-      <c r="F967" s="17"/>
+      <c r="F967" s="18"/>
     </row>
     <row r="968">
-      <c r="F968" s="17"/>
+      <c r="F968" s="18"/>
     </row>
     <row r="969">
-      <c r="F969" s="17"/>
+      <c r="F969" s="18"/>
     </row>
     <row r="970">
-      <c r="F970" s="17"/>
+      <c r="F970" s="18"/>
     </row>
     <row r="971">
-      <c r="F971" s="17"/>
+      <c r="F971" s="18"/>
     </row>
     <row r="972">
-      <c r="F972" s="17"/>
+      <c r="F972" s="18"/>
     </row>
     <row r="973">
-      <c r="F973" s="17"/>
+      <c r="F973" s="18"/>
     </row>
     <row r="974">
-      <c r="F974" s="17"/>
+      <c r="F974" s="18"/>
     </row>
     <row r="975">
-      <c r="F975" s="17"/>
+      <c r="F975" s="18"/>
     </row>
     <row r="976">
-      <c r="F976" s="17"/>
+      <c r="F976" s="18"/>
     </row>
     <row r="977">
-      <c r="F977" s="17"/>
+      <c r="F977" s="18"/>
     </row>
     <row r="978">
-      <c r="F978" s="17"/>
+      <c r="F978" s="18"/>
     </row>
     <row r="979">
-      <c r="F979" s="17"/>
+      <c r="F979" s="18"/>
     </row>
     <row r="980">
-      <c r="F980" s="17"/>
+      <c r="F980" s="18"/>
     </row>
     <row r="981">
-      <c r="F981" s="17"/>
+      <c r="F981" s="18"/>
     </row>
     <row r="982">
-      <c r="F982" s="17"/>
+      <c r="F982" s="18"/>
     </row>
     <row r="983">
-      <c r="F983" s="17"/>
+      <c r="F983" s="18"/>
     </row>
     <row r="984">
-      <c r="F984" s="17"/>
+      <c r="F984" s="18"/>
     </row>
     <row r="985">
-      <c r="F985" s="17"/>
+      <c r="F985" s="18"/>
     </row>
     <row r="986">
-      <c r="F986" s="17"/>
+      <c r="F986" s="18"/>
     </row>
     <row r="987">
-      <c r="F987" s="17"/>
+      <c r="F987" s="18"/>
     </row>
     <row r="988">
-      <c r="F988" s="17"/>
+      <c r="F988" s="18"/>
     </row>
     <row r="989">
-      <c r="F989" s="17"/>
+      <c r="F989" s="18"/>
     </row>
     <row r="990">
-      <c r="F990" s="17"/>
+      <c r="F990" s="18"/>
     </row>
     <row r="991">
-      <c r="F991" s="17"/>
+      <c r="F991" s="18"/>
     </row>
     <row r="992">
-      <c r="F992" s="17"/>
+      <c r="F992" s="18"/>
     </row>
     <row r="993">
-      <c r="F993" s="17"/>
+      <c r="F993" s="18"/>
     </row>
     <row r="994">
-      <c r="F994" s="17"/>
+      <c r="F994" s="18"/>
     </row>
     <row r="995">
-      <c r="F995" s="17"/>
+      <c r="F995" s="18"/>
     </row>
     <row r="996">
-      <c r="F996" s="17"/>
+      <c r="F996" s="18"/>
     </row>
     <row r="997">
-      <c r="F997" s="17"/>
+      <c r="F997" s="18"/>
     </row>
     <row r="998">
-      <c r="F998" s="17"/>
+      <c r="F998" s="18"/>
     </row>
     <row r="999">
-      <c r="F999" s="17"/>
+      <c r="F999" s="18"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="17"/>
+      <c r="F1000" s="18"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="17"/>
+      <c r="F1001" s="18"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="17"/>
+      <c r="F1002" s="18"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="17"/>
+      <c r="F1003" s="18"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="17"/>
+      <c r="F1004" s="18"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="17"/>
+      <c r="F1005" s="18"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="17"/>
+      <c r="F1006" s="18"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="17"/>
+      <c r="F1007" s="18"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="17"/>
+      <c r="F1008" s="18"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="17"/>
+      <c r="F1009" s="18"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="17"/>
+      <c r="F1010" s="18"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="17"/>
+      <c r="F1011" s="18"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="17"/>
+      <c r="F1012" s="18"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="17"/>
+      <c r="F1013" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5445,16 +5553,16 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5465,17 +5573,17 @@
       <c r="B2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>90.86</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>41</v>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E2" s="24">
+        <v>3.07</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5485,17 +5593,17 @@
       <c r="B3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="E3" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>43</v>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E3" s="24">
+        <v>20.0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5505,17 +5613,17 @@
       <c r="B4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="E4" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>45</v>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>10.9</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -5525,17 +5633,17 @@
       <c r="B5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="12">
-        <v>22.9</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>47</v>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>33.0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -5545,17 +5653,20 @@
       <c r="B6" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="24">
         <v>2.0</v>
       </c>
-      <c r="E6" s="12">
-        <v>1.42</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>49</v>
+      <c r="E6" s="24">
+        <v>50.0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="7">
@@ -5565,17 +5676,17 @@
       <c r="B7" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2.6</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>51</v>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -5585,17 +5696,20 @@
       <c r="B8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0.59</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>53</v>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -5605,17 +5719,20 @@
       <c r="B9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0.83</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>55</v>
+      <c r="C9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>124.0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -5625,17 +5742,20 @@
       <c r="B10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1.65</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>57</v>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>369.0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -5645,17 +5765,17 @@
       <c r="B11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="24">
         <v>1.0</v>
       </c>
-      <c r="E11" s="12">
-        <v>10.9</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>59</v>
+      <c r="E11" s="24">
+        <v>2.83</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -5666,16 +5786,16 @@
         <v>0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="23">
-        <v>9.0</v>
-      </c>
-      <c r="E12" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>62</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -5686,16 +5806,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0.59</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>6.9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -5706,16 +5826,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="23">
+        <v>35</v>
+      </c>
+      <c r="D14" s="24">
         <v>2.0</v>
       </c>
-      <c r="E14" s="23">
-        <v>0.83</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>65</v>
+      <c r="E14" s="24">
+        <v>2.36</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -5726,16 +5846,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E15" s="23">
-        <v>1.65</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+      <c r="D15" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>6.9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -5746,16 +5866,16 @@
         <v>0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="23">
+        <v>38</v>
+      </c>
+      <c r="D16" s="24">
         <v>1.0</v>
       </c>
-      <c r="E16" s="23">
-        <v>5.9</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>69</v>
+      <c r="E16" s="24">
+        <v>53.0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17">
@@ -5765,17 +5885,17 @@
       <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E17" s="23">
-        <v>1.42</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>73</v>
+      <c r="C17" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>90.86</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -5785,17 +5905,17 @@
       <c r="B18" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="E18" s="23">
-        <v>2.95</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>74</v>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -5805,17 +5925,17 @@
       <c r="B19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E19" s="23">
-        <v>3.3</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>76</v>
+      <c r="C19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="13">
+        <v>6.0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>19.0</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20">
@@ -5825,20 +5945,17 @@
       <c r="B20" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E20" s="23">
-        <v>70.0</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>79</v>
+      <c r="C20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>22.9</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21">
@@ -5848,17 +5965,17 @@
       <c r="B21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0.83</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>81</v>
+      <c r="C21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>1.42</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22">
@@ -5868,17 +5985,17 @@
       <c r="B22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0.71</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>83</v>
+      <c r="C22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2.6</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -5888,17 +6005,17 @@
       <c r="B23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E23" s="23">
-        <v>799.0</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>86</v>
+      <c r="C23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24">
@@ -5908,20 +6025,17 @@
       <c r="B24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E24" s="23">
-        <v>9500.0</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>89</v>
+      <c r="C24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25">
@@ -5931,17 +6045,17 @@
       <c r="B25" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E25" s="23">
-        <v>75.0</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>91</v>
+      <c r="C25" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1.65</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26">
@@ -5951,17 +6065,17 @@
       <c r="B26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="23">
+      <c r="C26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="13">
         <v>1.0</v>
       </c>
-      <c r="E26" s="23">
-        <v>208.0</v>
-      </c>
-      <c r="F26" s="25" t="s">
-        <v>93</v>
+      <c r="E26" s="13">
+        <v>10.9</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27">
@@ -5971,18 +6085,12 @@
       <c r="B27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E27" s="23">
-        <v>3000.0</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>95</v>
-      </c>
+      <c r="C27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="b">
@@ -5992,16 +6100,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E28" s="23">
-        <v>2319.0</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="D28" s="24">
+        <v>9.0</v>
+      </c>
+      <c r="E28" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29">
@@ -6012,16 +6120,16 @@
         <v>0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="23">
-        <v>54.0</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>99</v>
+        <v>54</v>
+      </c>
+      <c r="D29" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="24">
+        <v>0.59</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -6032,16 +6140,16 @@
         <v>0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E30" s="23">
-        <v>212.0</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31">
@@ -6052,19 +6160,16 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E31" s="23">
-        <v>2699.0</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="D31" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="24">
+        <v>1.65</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -6075,16 +6180,16 @@
         <v>0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="23">
+        <v>70</v>
+      </c>
+      <c r="D32" s="24">
         <v>1.0</v>
       </c>
-      <c r="E32" s="23">
-        <v>89.0</v>
-      </c>
-      <c r="F32" s="25" t="s">
-        <v>107</v>
+      <c r="E32" s="24">
+        <v>5.9</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -6095,16 +6200,16 @@
         <v>0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D33" s="23">
+        <v>72</v>
+      </c>
+      <c r="D33" s="24">
         <v>1.0</v>
       </c>
-      <c r="E33" s="23">
-        <v>27.0</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>109</v>
+      <c r="E33" s="24">
+        <v>1.65</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -6115,16 +6220,16 @@
         <v>0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D34" s="23">
+        <v>74</v>
+      </c>
+      <c r="D34" s="24">
         <v>3.0</v>
       </c>
-      <c r="E34" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>111</v>
+      <c r="E34" s="24">
+        <v>1.42</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35">
@@ -6135,16 +6240,16 @@
         <v>0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="23">
+        <v>29</v>
+      </c>
+      <c r="D35" s="24">
         <v>3.0</v>
       </c>
-      <c r="E35" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>113</v>
+      <c r="E35" s="24">
+        <v>2.95</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -6155,16 +6260,16 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="23">
+        <v>77</v>
+      </c>
+      <c r="D36" s="24">
         <v>1.0</v>
       </c>
-      <c r="E36" s="23">
-        <v>85.0</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>115</v>
+      <c r="E36" s="24">
+        <v>3.3</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
@@ -6175,16 +6280,19 @@
         <v>0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="23">
+        <v>79</v>
+      </c>
+      <c r="D37" s="24">
         <v>2.0</v>
       </c>
-      <c r="E37" s="23">
-        <v>85.0</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>117</v>
+      <c r="E37" s="24">
+        <v>70.0</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38">
@@ -6195,19 +6303,16 @@
         <v>0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E38" s="23">
-        <v>870.0</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="D38" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="39">
@@ -6218,16 +6323,16 @@
         <v>0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="23">
+        <v>84</v>
+      </c>
+      <c r="D39" s="24">
         <v>2.0</v>
       </c>
-      <c r="E39" s="23">
-        <v>75.0</v>
-      </c>
-      <c r="F39" s="25" t="s">
-        <v>122</v>
+      <c r="E39" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="40">
@@ -6237,18 +6342,10 @@
       <c r="B40" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D40" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E40" s="23">
-        <v>28.0</v>
-      </c>
-      <c r="F40" s="24" t="s">
-        <v>124</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="b">
@@ -6257,14 +6354,12 @@
       <c r="B41" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42">
       <c r="A42" s="3" t="b">
@@ -6274,16 +6369,16 @@
         <v>0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E42" s="23">
-        <v>200.0</v>
-      </c>
-      <c r="F42" s="24" t="s">
-        <v>127</v>
+        <v>87</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="24">
+        <v>799.0</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="43">
@@ -6294,19 +6389,19 @@
         <v>0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="E43" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>129</v>
+        <v>89</v>
+      </c>
+      <c r="D43" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="24">
+        <v>2299.0</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44">
@@ -6317,15 +6412,16 @@
         <v>0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="23">
+        <v>92</v>
+      </c>
+      <c r="D44" s="24">
         <v>1.0</v>
       </c>
-      <c r="E44" s="23"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="4" t="s">
-        <v>132</v>
+      <c r="E44" s="24">
+        <v>75.0</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -6336,19 +6432,16 @@
         <v>0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="23">
+        <v>94</v>
+      </c>
+      <c r="D45" s="24">
         <v>1.0</v>
       </c>
-      <c r="E45" s="12">
-        <v>90.86</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>134</v>
+      <c r="E45" s="24">
+        <v>208.0</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="46">
@@ -6359,16 +6452,16 @@
         <v>0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E46" s="23">
-        <v>30.0</v>
-      </c>
-      <c r="F46" s="24" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="D46" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="24">
+        <v>399.0</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="47">
@@ -6379,14 +6472,16 @@
         <v>0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E47" s="23"/>
-      <c r="F47" s="24" t="s">
-        <v>139</v>
+        <v>98</v>
+      </c>
+      <c r="D47" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E47" s="24">
+        <v>1779.0</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="48">
@@ -6397,16 +6492,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E48" s="23">
-        <v>10.0</v>
-      </c>
-      <c r="F48" s="24" t="s">
-        <v>141</v>
+        <v>100</v>
+      </c>
+      <c r="D48" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E48" s="24">
+        <v>54.0</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="49">
@@ -6417,11 +6512,17 @@
         <v>0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="26"/>
+        <v>102</v>
+      </c>
+      <c r="D49" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E49" s="24">
+        <v>212.0</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="b">
@@ -6430,12 +6531,11 @@
       <c r="B50" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="26"/>
+      <c r="D50" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="b">
@@ -6444,12 +6544,12 @@
       <c r="B51" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="26"/>
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="b">
@@ -6459,16 +6559,19 @@
         <v>0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="23">
+        <v>105</v>
+      </c>
+      <c r="D52" s="24">
         <v>2.0</v>
       </c>
-      <c r="E52" s="23">
-        <v>3.07</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>8</v>
+      <c r="E52" s="24">
+        <v>2699.0</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="53">
@@ -6479,16 +6582,16 @@
         <v>0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E53" s="23">
-        <v>20.0</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>10</v>
+        <v>108</v>
+      </c>
+      <c r="D53" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E53" s="24">
+        <v>89.0</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="54">
@@ -6499,16 +6602,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="23">
+        <v>110</v>
+      </c>
+      <c r="D54" s="24">
         <v>1.0</v>
       </c>
-      <c r="E54" s="23">
-        <v>10.9</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
+      <c r="E54" s="24">
+        <v>27.0</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="55">
@@ -6519,16 +6622,16 @@
         <v>0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E55" s="23">
-        <v>33.0</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>14</v>
+        <v>112</v>
+      </c>
+      <c r="D55" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E55" s="24">
+        <v>100.0</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="56">
@@ -6539,19 +6642,16 @@
         <v>0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E56" s="23">
-        <v>50.0</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="D56" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E56" s="24">
+        <v>20.0</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="57">
@@ -6562,16 +6662,16 @@
         <v>0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E57" s="23">
-        <v>0.59</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>19</v>
+        <v>116</v>
+      </c>
+      <c r="D57" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E57" s="24">
+        <v>85.0</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58">
@@ -6582,19 +6682,16 @@
         <v>0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="23">
+        <v>118</v>
+      </c>
+      <c r="D58" s="24">
         <v>2.0</v>
       </c>
-      <c r="E58" s="23">
-        <v>100.0</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>22</v>
+      <c r="E58" s="24">
+        <v>85.0</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59">
@@ -6605,19 +6702,19 @@
         <v>0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="23">
+        <v>120</v>
+      </c>
+      <c r="D59" s="24">
         <v>2.0</v>
       </c>
-      <c r="E59" s="23">
-        <v>124.0</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>24</v>
+      <c r="E59" s="24">
+        <v>870.0</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
@@ -6628,19 +6725,16 @@
         <v>0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D60" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="23">
-        <v>369.0</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>28</v>
+        <v>123</v>
+      </c>
+      <c r="D60" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E60" s="24">
+        <v>75.0</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -6651,16 +6745,16 @@
         <v>0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="23">
+        <v>125</v>
+      </c>
+      <c r="D61" s="24">
         <v>1.0</v>
       </c>
-      <c r="E61" s="23">
-        <v>0.59</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>32</v>
+      <c r="E61" s="24">
+        <v>28.0</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -6671,17 +6765,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="E62" s="23">
-        <v>6.9</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="D62" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="E62" s="24"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="b">
@@ -6691,16 +6781,16 @@
         <v>0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="23">
+        <v>128</v>
+      </c>
+      <c r="D63" s="24">
         <v>2.0</v>
       </c>
-      <c r="E63" s="23">
-        <v>2.36</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>36</v>
+      <c r="E63" s="24">
+        <v>200.0</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -6711,50 +6801,214 @@
         <v>0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E64" s="23">
-        <v>6.9</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>34</v>
+        <v>130</v>
+      </c>
+      <c r="D64" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="E64" s="24">
+        <v>20.0</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="24"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B66" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="13">
+        <v>90.86</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" s="26"/>
+      <c r="A67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68">
-      <c r="F68" s="26"/>
+      <c r="A68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B68" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69">
-      <c r="F69" s="26"/>
+      <c r="A69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70">
-      <c r="F70" s="26"/>
+      <c r="A70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E70" s="24">
+        <v>30.0</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="71">
-      <c r="F71" s="26"/>
+      <c r="A71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D71" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E71" s="24"/>
+      <c r="F71" s="19" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="72">
-      <c r="F72" s="26"/>
+      <c r="A72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="E72" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="73">
-      <c r="F73" s="26"/>
+      <c r="A73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74">
-      <c r="F74" s="26"/>
+      <c r="A74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75">
-      <c r="F75" s="26"/>
+      <c r="A75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B75" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="22" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="76">
-      <c r="F76" s="26"/>
+      <c r="A76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="B76" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77">
-      <c r="F77" s="26"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78">
       <c r="F78" s="26"/>
@@ -6762,7 +7016,17 @@
     <row r="79">
       <c r="F79" s="26"/>
     </row>
-    <row r="80">
+    <row r="80" ht="39.75" customHeight="1">
+      <c r="C80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="27">
+        <f>SUMPRODUCT(D2:D79,E2:E79)</f>
+        <v>17010.08</v>
+      </c>
       <c r="F80" s="26"/>
     </row>
     <row r="81">
@@ -9499,27 +9763,27 @@
     <hyperlink r:id="rId3" ref="F4"/>
     <hyperlink r:id="rId4" ref="F5"/>
     <hyperlink r:id="rId5" ref="F6"/>
-    <hyperlink r:id="rId6" ref="F7"/>
-    <hyperlink r:id="rId7" ref="F8"/>
-    <hyperlink r:id="rId8" ref="F9"/>
-    <hyperlink r:id="rId9" ref="F10"/>
-    <hyperlink r:id="rId10" ref="F11"/>
-    <hyperlink r:id="rId11" ref="F12"/>
-    <hyperlink r:id="rId12" ref="F13"/>
-    <hyperlink r:id="rId13" ref="F14"/>
-    <hyperlink r:id="rId14" ref="F15"/>
-    <hyperlink r:id="rId15" ref="F16"/>
-    <hyperlink r:id="rId16" ref="F17"/>
-    <hyperlink r:id="rId17" ref="F18"/>
-    <hyperlink r:id="rId18" ref="F19"/>
-    <hyperlink r:id="rId19" ref="F20"/>
-    <hyperlink r:id="rId20" ref="F21"/>
-    <hyperlink r:id="rId21" ref="F22"/>
-    <hyperlink r:id="rId22" ref="F23"/>
-    <hyperlink r:id="rId23" ref="F24"/>
-    <hyperlink r:id="rId24" ref="F25"/>
-    <hyperlink r:id="rId25" ref="F26"/>
-    <hyperlink r:id="rId26" ref="F27"/>
+    <hyperlink r:id="rId6" ref="G6"/>
+    <hyperlink r:id="rId7" ref="F7"/>
+    <hyperlink r:id="rId8" ref="F8"/>
+    <hyperlink r:id="rId9" ref="F9"/>
+    <hyperlink r:id="rId10" ref="F10"/>
+    <hyperlink r:id="rId11" ref="F11"/>
+    <hyperlink r:id="rId12" ref="F12"/>
+    <hyperlink r:id="rId13" ref="F13"/>
+    <hyperlink r:id="rId14" ref="F14"/>
+    <hyperlink r:id="rId15" ref="F15"/>
+    <hyperlink r:id="rId16" ref="F16"/>
+    <hyperlink r:id="rId17" ref="F17"/>
+    <hyperlink r:id="rId18" ref="F18"/>
+    <hyperlink r:id="rId19" ref="F19"/>
+    <hyperlink r:id="rId20" ref="F20"/>
+    <hyperlink r:id="rId21" ref="F21"/>
+    <hyperlink r:id="rId22" ref="F22"/>
+    <hyperlink r:id="rId23" ref="F23"/>
+    <hyperlink r:id="rId24" ref="F24"/>
+    <hyperlink r:id="rId25" ref="F25"/>
+    <hyperlink r:id="rId26" ref="F26"/>
     <hyperlink r:id="rId27" ref="F28"/>
     <hyperlink r:id="rId28" ref="F29"/>
     <hyperlink r:id="rId29" ref="F30"/>
@@ -9532,28 +9796,31 @@
     <hyperlink r:id="rId36" ref="F37"/>
     <hyperlink r:id="rId37" ref="F38"/>
     <hyperlink r:id="rId38" ref="F39"/>
-    <hyperlink r:id="rId39" ref="F40"/>
-    <hyperlink r:id="rId40" ref="F42"/>
-    <hyperlink r:id="rId41" ref="F43"/>
+    <hyperlink r:id="rId39" ref="F42"/>
+    <hyperlink r:id="rId40" ref="F43"/>
+    <hyperlink r:id="rId41" ref="F44"/>
     <hyperlink r:id="rId42" ref="F45"/>
     <hyperlink r:id="rId43" ref="F46"/>
     <hyperlink r:id="rId44" ref="F47"/>
     <hyperlink r:id="rId45" ref="F48"/>
-    <hyperlink r:id="rId46" ref="F52"/>
-    <hyperlink r:id="rId47" ref="F53"/>
-    <hyperlink r:id="rId48" ref="F54"/>
-    <hyperlink r:id="rId49" ref="F55"/>
-    <hyperlink r:id="rId50" ref="F56"/>
-    <hyperlink r:id="rId51" ref="G56"/>
+    <hyperlink r:id="rId46" ref="F49"/>
+    <hyperlink r:id="rId47" ref="F52"/>
+    <hyperlink r:id="rId48" ref="F53"/>
+    <hyperlink r:id="rId49" ref="F54"/>
+    <hyperlink r:id="rId50" ref="F55"/>
+    <hyperlink r:id="rId51" ref="F56"/>
     <hyperlink r:id="rId52" ref="F57"/>
     <hyperlink r:id="rId53" ref="F58"/>
     <hyperlink r:id="rId54" ref="F59"/>
     <hyperlink r:id="rId55" ref="F60"/>
     <hyperlink r:id="rId56" ref="F61"/>
-    <hyperlink r:id="rId57" ref="F62"/>
-    <hyperlink r:id="rId58" ref="F63"/>
-    <hyperlink r:id="rId59" ref="F64"/>
+    <hyperlink r:id="rId57" ref="F63"/>
+    <hyperlink r:id="rId58" ref="F64"/>
+    <hyperlink r:id="rId59" ref="F66"/>
+    <hyperlink r:id="rId60" ref="F70"/>
+    <hyperlink r:id="rId61" ref="F71"/>
+    <hyperlink r:id="rId62" ref="F72"/>
   </hyperlinks>
-  <drawing r:id="rId60"/>
+  <drawing r:id="rId63"/>
 </worksheet>
 </file>